--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,12 +41,12 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="94">
   <si>
     <t>Sources:</t>
   </si>
@@ -289,18 +289,6 @@
   </si>
   <si>
     <t>Tables 35, 49, 55</t>
-  </si>
-  <si>
-    <t>https://greet.es.anl.gov/files/heavy-duty</t>
-  </si>
-  <si>
-    <t>Argonne National Laboratory</t>
-  </si>
-  <si>
-    <t>The GREET Model Expansion for Well-to-Wheels Analysis of Heavy-Duty Vehicles</t>
-  </si>
-  <si>
-    <t>Table 6</t>
   </si>
   <si>
     <t>Hydrogen vs. Gasoline Efficiency</t>
@@ -1231,7 +1219,7 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1269,6 +1257,9 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="153"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="154">
@@ -5469,6 +5460,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6005,6 +5997,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7763,9 +7756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7828,199 +7823,165 @@
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="25" t="s">
-        <v>8</v>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="5">
-        <v>2015</v>
+      <c r="B14" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="5" t="s">
-        <v>83</v>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="B17" s="5" t="s">
-        <v>81</v>
+      <c r="B17" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="B19" s="5"/>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="B20" s="2" t="s">
-        <v>9</v>
+      <c r="B20" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="B21" s="7" t="s">
-        <v>96</v>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="7" t="s">
-        <v>12</v>
+      <c r="B23" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="B25" s="5"/>
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="B26" s="2" t="s">
-        <v>32</v>
+      <c r="A26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="B27" s="7" t="s">
-        <v>20</v>
+      <c r="A27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="B28" s="7"/>
+      <c r="A28" s="20"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="B29" s="2" t="s">
-        <v>93</v>
+      <c r="A29" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="B30" s="7" t="s">
-        <v>92</v>
+      <c r="A30" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
+      <c r="A32" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>34</v>
+      <c r="A33" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="20"/>
+      <c r="A34" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="20" t="s">
-        <v>36</v>
+      <c r="A36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="20" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="20" t="s">
-        <v>39</v>
+      <c r="A39" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="20" t="s">
-        <v>40</v>
+      <c r="A40" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="20" t="s">
-        <v>41</v>
+      <c r="A41" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>48</v>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="20" t="s">
-        <v>49</v>
+      <c r="A44" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="20" t="s">
-        <v>42</v>
+      <c r="A45" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8040,7 +8001,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30">
       <c r="A1" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -8750,7 +8711,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8857,7 +8818,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
@@ -9017,7 +8978,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30">
       <c r="A1" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -9727,7 +9688,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -9834,7 +9795,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
@@ -9994,7 +9955,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30">
       <c r="A1" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -10704,7 +10665,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10811,7 +10772,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
@@ -10971,7 +10932,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30">
       <c r="A1" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -11681,7 +11642,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -11788,7 +11749,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
@@ -11948,7 +11909,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30">
       <c r="A1" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -12658,7 +12619,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -12765,7 +12726,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
@@ -12925,7 +12886,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30">
       <c r="A1" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -13635,7 +13596,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -13742,7 +13703,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
@@ -13902,7 +13863,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30">
       <c r="A1" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -14714,7 +14675,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
@@ -14855,7 +14816,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
@@ -15015,7 +14976,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30">
       <c r="A1" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -15657,7 +15618,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -15764,7 +15725,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -17545,7 +17506,7 @@
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17684,7 +17645,7 @@
       <c r="A14" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="30" t="s">
         <v>68</v>
       </c>
     </row>
@@ -17756,7 +17717,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3"/>
       <c r="D24" s="2" t="s">
@@ -17765,18 +17726,18 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B25" s="26">
         <v>0.2</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B26" s="26">
         <v>0.5</v>
@@ -17785,7 +17746,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B27" s="8">
         <f>B26/B25</f>
@@ -17794,7 +17755,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -17803,18 +17764,18 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B30" s="27">
         <v>0.22500000000000001</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B31" s="8">
         <f>1-B30</f>
@@ -17833,11 +17794,11 @@
   <dimension ref="A1:BT14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C13" sqref="C13"/>
       <selection pane="topRight" activeCell="C13" sqref="C13"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
-      <selection pane="bottomRight" activeCell="W5" sqref="W5:AJ5"/>
+      <selection pane="bottomRight" activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21127,7 +21088,9 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -21136,7 +21099,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30">
       <c r="A1" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -21948,7 +21911,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
@@ -22089,7 +22052,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
@@ -22249,7 +22212,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30">
       <c r="A1" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -23061,7 +23024,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
@@ -23202,7 +23165,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
@@ -23353,7 +23316,9 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -23362,7 +23327,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30">
       <c r="A1" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -24174,7 +24139,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
@@ -24315,7 +24280,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
@@ -24475,7 +24440,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30">
       <c r="A1" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -25287,7 +25252,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
@@ -25428,7 +25393,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gngna\Documents\Cenergia\EPS\Furada Camila\eps-brazil\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4473043B-2D82-4E7D-8E5A-0C5EB35F88D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="895"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -41,12 +42,14 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -353,17 +356,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###0.00_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="###0.00_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_)"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,12 +638,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1067,33 +1064,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1225,7 +1222,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1273,7 +1270,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1291,7 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1301,7 +1298,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="153"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1316,182 +1313,181 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="41" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="155">
-    <cellStyle name="20% - Accent1 2" xfId="8"/>
-    <cellStyle name="20% - Accent2 2" xfId="9"/>
-    <cellStyle name="20% - Accent3 2" xfId="10"/>
-    <cellStyle name="20% - Accent4 2" xfId="11"/>
-    <cellStyle name="20% - Accent5 2" xfId="12"/>
-    <cellStyle name="20% - Accent6 2" xfId="13"/>
-    <cellStyle name="40% - Accent1 2" xfId="14"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3 2" xfId="16"/>
-    <cellStyle name="40% - Accent4 2" xfId="17"/>
-    <cellStyle name="40% - Accent5 2" xfId="18"/>
-    <cellStyle name="40% - Accent6 2" xfId="19"/>
-    <cellStyle name="60% - Accent1 2" xfId="20"/>
-    <cellStyle name="60% - Accent2 2" xfId="21"/>
-    <cellStyle name="60% - Accent3 2" xfId="22"/>
-    <cellStyle name="60% - Accent4 2" xfId="23"/>
-    <cellStyle name="60% - Accent5 2" xfId="24"/>
-    <cellStyle name="60% - Accent6 2" xfId="25"/>
-    <cellStyle name="Accent1 2" xfId="26"/>
-    <cellStyle name="Accent2 2" xfId="27"/>
-    <cellStyle name="Accent3 2" xfId="28"/>
-    <cellStyle name="Accent4 2" xfId="29"/>
-    <cellStyle name="Accent5 2" xfId="30"/>
-    <cellStyle name="Accent6 2" xfId="31"/>
-    <cellStyle name="Bad 2" xfId="32"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="33"/>
-    <cellStyle name="Calculation 2" xfId="34"/>
-    <cellStyle name="Check Cell 2" xfId="35"/>
-    <cellStyle name="Column heading" xfId="36"/>
-    <cellStyle name="Comma 2" xfId="37"/>
-    <cellStyle name="Comma 2 2" xfId="38"/>
-    <cellStyle name="Comma 3" xfId="39"/>
-    <cellStyle name="Comma 4" xfId="40"/>
-    <cellStyle name="Comma 5" xfId="41"/>
-    <cellStyle name="Comma 6" xfId="42"/>
-    <cellStyle name="Comma 7" xfId="43"/>
-    <cellStyle name="Comma 8" xfId="44"/>
-    <cellStyle name="Corner heading" xfId="45"/>
-    <cellStyle name="Currency 2" xfId="46"/>
-    <cellStyle name="Currency 3" xfId="47"/>
-    <cellStyle name="Currency 3 2" xfId="48"/>
-    <cellStyle name="Data" xfId="49"/>
-    <cellStyle name="Data 2" xfId="50"/>
-    <cellStyle name="Data no deci" xfId="51"/>
-    <cellStyle name="Data Superscript" xfId="52"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
-    <cellStyle name="Explanatory Text 2" xfId="54"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56"/>
-    <cellStyle name="Good 2" xfId="57"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Heading 1 2" xfId="59"/>
-    <cellStyle name="Heading 2 2" xfId="60"/>
-    <cellStyle name="Heading 3 2" xfId="61"/>
-    <cellStyle name="Heading 4 2" xfId="62"/>
-    <cellStyle name="Hed Side" xfId="63"/>
-    <cellStyle name="Hed Side 2" xfId="64"/>
-    <cellStyle name="Hed Side bold" xfId="65"/>
-    <cellStyle name="Hed Side Indent" xfId="66"/>
-    <cellStyle name="Hed Side Regular" xfId="67"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
-    <cellStyle name="Hed Top" xfId="69"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72"/>
-    <cellStyle name="Input 2" xfId="73"/>
-    <cellStyle name="Linked Cell 2" xfId="74"/>
-    <cellStyle name="Neutral 2" xfId="75"/>
+    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Hiperlink" xfId="153" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76"/>
-    <cellStyle name="Normal 11" xfId="77"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="78"/>
-    <cellStyle name="Normal 2 3" xfId="79"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Normal 3 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 2" xfId="82"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="84"/>
-    <cellStyle name="Normal 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 3 2" xfId="86"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
-    <cellStyle name="Normal 3 3 3" xfId="88"/>
-    <cellStyle name="Normal 3 4" xfId="89"/>
-    <cellStyle name="Normal 3 4 2" xfId="90"/>
-    <cellStyle name="Normal 3 5" xfId="91"/>
-    <cellStyle name="Normal 3 6" xfId="92"/>
-    <cellStyle name="Normal 3 7" xfId="93"/>
-    <cellStyle name="Normal 4" xfId="94"/>
-    <cellStyle name="Normal 4 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 2" xfId="96"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
-    <cellStyle name="Normal 4 2 3" xfId="98"/>
-    <cellStyle name="Normal 4 3" xfId="99"/>
-    <cellStyle name="Normal 4 3 2" xfId="100"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
-    <cellStyle name="Normal 4 3 3" xfId="102"/>
-    <cellStyle name="Normal 4 4" xfId="103"/>
-    <cellStyle name="Normal 4 4 2" xfId="104"/>
-    <cellStyle name="Normal 4 5" xfId="105"/>
-    <cellStyle name="Normal 4 6" xfId="106"/>
-    <cellStyle name="Normal 4 7" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 5 2" xfId="109"/>
-    <cellStyle name="Normal 5 3" xfId="110"/>
-    <cellStyle name="Normal 6" xfId="111"/>
-    <cellStyle name="Normal 6 2" xfId="112"/>
-    <cellStyle name="Normal 7" xfId="113"/>
-    <cellStyle name="Normal 7 2" xfId="114"/>
-    <cellStyle name="Normal 8" xfId="115"/>
-    <cellStyle name="Normal 9" xfId="116"/>
-    <cellStyle name="Note 2" xfId="117"/>
-    <cellStyle name="Note 2 2" xfId="118"/>
-    <cellStyle name="Output 2" xfId="119"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Parent row 2" xfId="120"/>
-    <cellStyle name="Percent" xfId="154" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="121"/>
-    <cellStyle name="Percent 2 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 3 2" xfId="124"/>
-    <cellStyle name="Percent 4" xfId="125"/>
-    <cellStyle name="Reference" xfId="126"/>
-    <cellStyle name="Row heading" xfId="127"/>
-    <cellStyle name="Source Hed" xfId="128"/>
-    <cellStyle name="Source Letter" xfId="129"/>
-    <cellStyle name="Source Superscript" xfId="130"/>
-    <cellStyle name="Source Superscript 2" xfId="131"/>
-    <cellStyle name="Source Text" xfId="132"/>
-    <cellStyle name="Source Text 2" xfId="133"/>
-    <cellStyle name="State" xfId="134"/>
-    <cellStyle name="Superscript" xfId="135"/>
-    <cellStyle name="Table Data" xfId="136"/>
-    <cellStyle name="Table Head Top" xfId="137"/>
-    <cellStyle name="Table Hed Side" xfId="138"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Table title 2" xfId="139"/>
-    <cellStyle name="Title 2" xfId="140"/>
-    <cellStyle name="Title Text" xfId="141"/>
-    <cellStyle name="Title Text 1" xfId="142"/>
-    <cellStyle name="Title Text 2" xfId="143"/>
-    <cellStyle name="Title-1" xfId="144"/>
-    <cellStyle name="Title-2" xfId="145"/>
-    <cellStyle name="Title-3" xfId="146"/>
-    <cellStyle name="Total 2" xfId="147"/>
-    <cellStyle name="Warning Text 2" xfId="148"/>
-    <cellStyle name="Wrap" xfId="149"/>
-    <cellStyle name="Wrap Bold" xfId="150"/>
-    <cellStyle name="Wrap Title" xfId="151"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
+    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Porcentagem" xfId="154" builtinId="5"/>
+    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1509,7 +1505,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1521,7 +1517,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1982,7 +1977,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1994,7 +1989,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2515,7 +2509,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2527,7 +2521,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2776,49 +2769,49 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="19">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.968325641621566E-4</c:v>
+                  <c:v>5.9683256416215671E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>5.9683256416215671E-4</c:v>
@@ -3001,7 +2994,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3013,7 +3006,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3262,40 +3254,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>2.3042283446730118E-4</c:v>
+                  <c:v>4.0639641474842121E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>2.4395926371969503E-4</c:v>
+                  <c:v>4.0639641474842121E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>2.5749569297208889E-4</c:v>
+                  <c:v>4.0639641474842121E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>2.7103212222448275E-4</c:v>
+                  <c:v>4.0639641474842121E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>2.8456855147687661E-4</c:v>
+                  <c:v>4.0639641474842121E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>2.9810498072927046E-4</c:v>
+                  <c:v>4.0639641474842121E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.1164140998166432E-4</c:v>
+                  <c:v>4.0639641474842121E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.2517783923405818E-4</c:v>
+                  <c:v>4.0639641474842121E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.3871426848645203E-4</c:v>
+                  <c:v>4.0639641474842121E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.5225069773884589E-4</c:v>
+                  <c:v>4.0639641474842121E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.6578712699123975E-4</c:v>
+                  <c:v>4.0639641474842121E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.7932355624363361E-4</c:v>
+                  <c:v>4.0639641474842121E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
                   <c:v>4.0639641474842121E-4</c:v>
@@ -3477,7 +3469,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3489,7 +3481,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3738,67 +3729,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>8.2462678444605397E-4</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>8.2462678444605397E-4</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>8.2462678444605397E-4</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>8.2462678444605397E-4</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>8.2462678444605397E-4</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>8.2462678444605397E-4</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>8.2462678444605397E-4</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>8.8343450560586273E-4</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>9.4224222676567149E-4</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.0010499479254802E-3</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.0598576690852889E-3</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.1186653902450978E-3</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.1774731114049064E-3</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.2362808325647153E-3</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.2950885537245241E-3</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.353896274884333E-3</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.4127039960441417E-3</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.4715117172039503E-3</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.5303194383637592E-3</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.5891271595235678E-3</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.6479348806833767E-3</c:v>
+                  <c:v>1.7655503230029938E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
                   <c:v>1.7655503230029938E-3</c:v>
@@ -3980,7 +3971,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3992,7 +3983,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4241,88 +4231,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>6.8252955322291439E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>6.8252955322291439E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>6.8252955322291439E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>6.8252955322291439E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>6.8252955322291439E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>6.8252955322291439E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>6.8252955322291439E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>6.8252955322291439E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>6.8252955322291439E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>6.8252955322291439E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>6.8252955322291439E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>6.8252955322291439E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.3120370303994325E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.7987785285697211E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>8.2855200267400097E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>8.7722615249102983E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>9.2590030230805869E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>9.7457445212508756E-4</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.0232486019421164E-3</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.0719227517591453E-3</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.1205969015761741E-3</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.169271051393203E-3</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.2179452012102319E-3</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.2666193510272607E-3</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.3152935008442896E-3</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.3639676506613184E-3</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.461315950295376E-3</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.4759291097983297E-3</c:v>
+                  <c:v>1.4906884008963129E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
                   <c:v>1.4906884008963129E-3</c:v>
@@ -4498,7 +4488,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4510,7 +4500,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4759,76 +4748,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>8.9036933147232898E-5</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>9.1309980917225406E-5</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>9.3583028687217913E-5</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>9.5856076457210421E-5</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>9.8129124227203796E-5</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.004021719971963E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>1.0267521976718881E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>1.0494826753718132E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.0722131530717469E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.094943630771672E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.1176741084715971E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.1404045861715222E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.1631350638714472E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.185865541571381E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.2085960192713061E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.2313264969712311E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.2540569746711562E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.27678745237109E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.299517930071015E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.3222484077709401E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.3449788854708652E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.3677093631707903E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.4152360440753146E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.4336341126482935E-4</c:v>
+                  <c:v>1.4522713561127213E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
                   <c:v>1.4522713561127213E-4</c:v>
@@ -5004,7 +4993,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5016,7 +5005,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5265,70 +5253,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.110418338707646E-4</c:v>
+                  <c:v>1.1104183387076455E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
                   <c:v>1.1104183387076455E-4</c:v>
@@ -5510,7 +5498,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5522,7 +5510,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5771,106 +5758,106 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="2">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.812562520651618E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.0375675223037477E-3</c:v>
+                  <c:v>3.2805729240880477E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3.2805729240880477E-3</c:v>
@@ -6047,7 +6034,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6059,7 +6046,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6308,106 +6294,106 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="2">
-                  <c:v>1.4691408670862577E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4592271545838982E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4493134420815387E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4393997295791792E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4294860170768198E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4195723045744603E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4096585920721008E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3997448795697413E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3898311670673819E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3799174545650189E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3700037420626594E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3600900295603E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3501763170579405E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.340262604555581E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3303488920532215E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.320435179550862E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3105214670485026E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3006077545461431E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2906940420437836E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2807803295414207E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2708666170390612E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2609529045367017E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2510391920343422E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2411254795319827E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2312117670296233E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2212980545272638E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2113843420249043E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2014706295225448E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1915569170201853E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1816432045178224E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1717294920154629E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1618157795131034E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1609415177744277E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1493321025966834E-3</c:v>
+                  <c:v>1.1378387815707165E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1.1378387815707165E-3</c:v>
@@ -6583,7 +6569,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6595,7 +6581,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7596,7 +7581,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7671,6 +7656,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7706,6 +7708,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7881,17 +7900,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="107.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8112,7 +8131,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8120,7 +8139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8130,12 +8149,12 @@
       <selection activeCell="B5" sqref="B5:AI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="30">
       <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
@@ -8248,99 +8267,99 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8611792672975295E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9342230809509604E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0072668946043907E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0803107082578215E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>3.15335452191128E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>3.2263983355647108E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>3.2994421492181416E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>3.3724859628715719E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>3.4455297765250309E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5185735901784612E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>3.591617403831892E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>3.6646612174853229E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>3.7377050311387537E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>3.8107488447922122E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>3.8837926584456425E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>3.9568364720990733E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>4.0298802857525041E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>4.1029240994059626E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>4.1759679130593934E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>4.2490117267128243E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>4.3220555403662546E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>4.3950993540196854E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>4.5478251378498942E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>4.6069468646419424E-4</v>
+        <v>4.6668371738822875E-4</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
@@ -8603,99 +8622,99 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!O6</f>
-        <v>8.9036933147232898E-5</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!P6</f>
-        <v>9.1309980917225406E-5</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!Q6</f>
-        <v>9.3583028687217913E-5</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!R6</f>
-        <v>9.5856076457210421E-5</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!S6</f>
-        <v>9.8129124227203796E-5</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!T6</f>
-        <v>1.004021719971963E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!U6</f>
-        <v>1.0267521976718881E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!V6</f>
-        <v>1.0494826753718132E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!W6</f>
-        <v>1.0722131530717469E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!X6</f>
-        <v>1.094943630771672E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!Y6</f>
-        <v>1.1176741084715971E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!Z6</f>
-        <v>1.1404045861715222E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AA6</f>
-        <v>1.1631350638714472E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AB6</f>
-        <v>1.185865541571381E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AC6</f>
-        <v>1.2085960192713061E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AD6</f>
-        <v>1.2313264969712311E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AE6</f>
-        <v>1.2540569746711562E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AF6</f>
-        <v>1.27678745237109E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AG6</f>
-        <v>1.299517930071015E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AH6</f>
-        <v>1.3222484077709401E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AI6</f>
-        <v>1.3449788854708652E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AJ6</f>
-        <v>1.3677093631707903E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AK6</f>
-        <v>1.4152360440753146E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AL6</f>
-        <v>1.4336341126482935E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AM6</f>
@@ -8958,99 +8977,99 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>2.2259233286808225E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>2.2827495229306351E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>2.3395757171804478E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>2.3964019114302605E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>2.4532281056800949E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>2.5100542999299076E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>2.5668804941797203E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>2.623706688429533E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>2.6805328826793673E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>2.73735907692918E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>2.7941852711789927E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>2.8510114654288054E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>2.9078376596786181E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>2.9646638539284524E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>3.0214900481782651E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>3.0783162424280778E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>3.1351424366778905E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>3.1919686309277249E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>3.2487948251775376E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>3.3056210194273503E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>3.3624472136771629E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>3.4192734079269756E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>3.5380901101882866E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>3.5840852816207338E-4</v>
+        <v>3.6306783902818033E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
@@ -9099,7 +9118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9109,12 +9128,12 @@
       <selection activeCell="B5" sqref="B5:AI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="30">
       <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
@@ -9227,91 +9246,91 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5683011716986808E-4</v>
+        <v>3.5683011716986792E-4</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
@@ -9582,91 +9601,91 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!O7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!P7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!Q7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!R7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!S7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!T7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!U7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!V7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!W7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!X7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!Y7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!Z7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AA7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AB7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AC7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AD7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AE7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AF7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AG7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AH7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AI7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AJ7</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AK7</f>
@@ -9937,91 +9956,91 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>2.7760458467691152E-4</v>
+        <v>2.7760458467691136E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
@@ -10078,7 +10097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10088,12 +10107,12 @@
       <selection activeCell="B2" sqref="B2:AI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="30">
       <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
@@ -10206,139 +10225,139 @@
       </c>
       <c r="B2" s="4">
         <f>Extrapolations!E8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="C2" s="4">
         <f>Extrapolations!F8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="D2" s="4">
         <f>Extrapolations!G8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="E2" s="4">
         <f>Extrapolations!H8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="F2" s="4">
         <f>Extrapolations!I8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="G2" s="4">
         <f>Extrapolations!J8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="H2" s="4">
         <f>Extrapolations!K8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="I2" s="4">
         <f>Extrapolations!L8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="J2" s="4">
         <f>Extrapolations!M8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="K2" s="4">
         <f>Extrapolations!N8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="L2" s="4">
         <f>Extrapolations!O8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="M2" s="4">
         <f>Extrapolations!P8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="N2" s="4">
         <f>Extrapolations!Q8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="O2" s="4">
         <f>Extrapolations!R8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="P2" s="4">
         <f>Extrapolations!S8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Extrapolations!T8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="R2" s="4">
         <f>Extrapolations!U8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="S2" s="4">
         <f>Extrapolations!V8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="T2" s="4">
         <f>Extrapolations!W8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="U2" s="4">
         <f>Extrapolations!X8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="V2" s="4">
         <f>Extrapolations!Y8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="W2" s="4">
         <f>Extrapolations!Z8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="X2" s="4">
         <f>Extrapolations!AA8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Extrapolations!AB8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Extrapolations!AC8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>Extrapolations!AD8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>Extrapolations!AE8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>Extrapolations!AF8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>Extrapolations!AG8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>Extrapolations!AH8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>Extrapolations!AI8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AG2" s="4">
         <f>Extrapolations!AJ8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AH2" s="4">
         <f>Extrapolations!AK8</f>
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AI2" s="4">
         <f>Extrapolations!AL8</f>
-        <v>3.0375675223037477E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -10989,7 +11008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10999,12 +11018,12 @@
       <selection activeCell="B5" sqref="B5:AI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="30">
       <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
@@ -11117,139 +11136,139 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>4.7210469195921E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>4.6891894558733138E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>4.6573319921545285E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>4.6254745284357423E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>4.593617064716957E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>4.5617596009981708E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>4.5299021372793855E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>4.4980446735605993E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>4.466187209841814E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>4.4343297461230165E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>4.4024722824042312E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>4.3706148186854451E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>4.3387573549666597E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>4.3068998912478736E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>4.2750424275290883E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>4.2431849638103021E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>4.2113275000915168E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>4.1794700363727306E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>4.1476125726539453E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>4.1157551089351478E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>4.0838976452163625E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>4.0520401814975763E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>4.020182717778791E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>3.9883252540600048E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>3.9564677903412195E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>3.9246103266224333E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>3.8927528629036476E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>3.8608953991848619E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>3.8290379354660761E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>3.7971804717472791E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>3.7653230080284933E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$5/(1-'Other Values'!$B$3)</f>
-        <v>3.7334655443097076E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="AH2" s="4">
         <f>AH$5/(1-'Other Values'!$B$3)</f>
-        <v>3.7306561263833801E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
       <c r="AI2" s="4">
         <f>AI$5/(1-'Other Values'!$B$3)</f>
-        <v>3.6933495651195465E-3</v>
+        <v>3.6564160694683508E-3</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -11472,139 +11491,139 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!E9</f>
-        <v>1.4691408670862577E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!F9</f>
-        <v>1.4592271545838982E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!G9</f>
-        <v>1.4493134420815387E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!H9</f>
-        <v>1.4393997295791792E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!I9</f>
-        <v>1.4294860170768198E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!J9</f>
-        <v>1.4195723045744603E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!K9</f>
-        <v>1.4096585920721008E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!L9</f>
-        <v>1.3997448795697413E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!M9</f>
-        <v>1.3898311670673819E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!N9</f>
-        <v>1.3799174545650189E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!O9</f>
-        <v>1.3700037420626594E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!P9</f>
-        <v>1.3600900295603E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!Q9</f>
-        <v>1.3501763170579405E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!R9</f>
-        <v>1.340262604555581E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!S9</f>
-        <v>1.3303488920532215E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!T9</f>
-        <v>1.320435179550862E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!U9</f>
-        <v>1.3105214670485026E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!V9</f>
-        <v>1.3006077545461431E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!W9</f>
-        <v>1.2906940420437836E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!X9</f>
-        <v>1.2807803295414207E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!Y9</f>
-        <v>1.2708666170390612E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!Z9</f>
-        <v>1.2609529045367017E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AA9</f>
-        <v>1.2510391920343422E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AB9</f>
-        <v>1.2411254795319827E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AC9</f>
-        <v>1.2312117670296233E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AD9</f>
-        <v>1.2212980545272638E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AE9</f>
-        <v>1.2113843420249043E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AF9</f>
-        <v>1.2014706295225448E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AG9</f>
-        <v>1.1915569170201853E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AH9</f>
-        <v>1.1816432045178224E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AI9</f>
-        <v>1.1717294920154629E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AG5" s="4">
         <f>Extrapolations!AJ9</f>
-        <v>1.1618157795131034E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AH5" s="4">
         <f>Extrapolations!AK9</f>
-        <v>1.1609415177744277E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AI5" s="4">
         <f>Extrapolations!AL9</f>
-        <v>1.1493321025966834E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -11827,139 +11846,139 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>3.6728521677156442E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>3.6480678864597455E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>3.6232836052038468E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>3.5984993239479481E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>3.5737150426920494E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>3.5489307614361507E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>3.524146480180252E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>3.4993621989243533E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>3.4745779176684546E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>3.4497936364125473E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>3.4250093551566486E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>3.4002250739007499E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>3.3754407926448512E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>3.3506565113889525E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>3.3258722301330538E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>3.3010879488771551E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>3.2763036676212564E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>3.2515193863653577E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>3.226735105109459E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>3.2019508238535516E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>3.1771665425976529E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>3.1523822613417542E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>3.1275979800858555E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>3.1028136988299568E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>3.0780294175740582E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>3.0532451363181595E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>3.0284608550622608E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>3.0036765738063621E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>2.9788922925504634E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>2.954108011294556E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>2.9293237300386573E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$5*Calculations!$B$27</f>
-        <v>2.9045394487827586E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="AH8" s="4">
         <f>AH$5*Calculations!$B$27</f>
-        <v>2.9023537944360693E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
       <c r="AI8" s="4">
         <f>AI$5*Calculations!$B$27</f>
-        <v>2.8733302564917084E-3</v>
+        <v>2.8445969539267913E-3</v>
       </c>
     </row>
   </sheetData>
@@ -11968,7 +11987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11978,12 +11997,12 @@
       <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="30">
       <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
@@ -12879,7 +12898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12889,12 +12908,12 @@
       <selection activeCell="B5" sqref="B5:AI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="30">
       <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
@@ -13858,7 +13877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13868,12 +13887,12 @@
       <selection activeCell="B4" sqref="B4:AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="30">
       <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
@@ -13986,63 +14005,63 @@
       </c>
       <c r="B2" s="4">
         <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
@@ -14127,63 +14146,63 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:AI3" si="0">B$4</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" si="0"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
@@ -14268,63 +14287,63 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!V12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!W12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!X12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!Y12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!Z12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AA12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AB12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AC12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AD12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AE12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AF12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AG12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AH12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AI12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AJ12</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AK12</f>
@@ -14409,63 +14428,63 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" ref="B5:AI5" si="1">B$4</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="1"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="1"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="1"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="1"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="1"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="1"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="1"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="1"/>
@@ -14550,63 +14569,63 @@
       </c>
       <c r="B6" s="4">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
@@ -14691,63 +14710,63 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>4.6254523722567137E-4</v>
+        <v>4.6254523722567148E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
@@ -14832,63 +14851,63 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
@@ -14973,7 +14992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14981,12 +15000,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="30">
       <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
@@ -15848,19 +15867,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:AM14"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.265625" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="3" max="3" width="26.86328125" customWidth="1"/>
-    <col min="4" max="5" width="10.265625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -16056,7 +16075,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="35">
-        <v>2.6355456688469071E-4</v>
+        <v>2.6355456688469098E-4</v>
       </c>
       <c r="E8" s="4">
         <v>2.6355456688469071E-4</v>
@@ -17540,16 +17559,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.3984375" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -17676,18 +17695,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.1328125" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -17881,7 +17900,7 @@
       <c r="M19" s="24"/>
       <c r="N19" s="32"/>
     </row>
-    <row r="20" spans="1:14" ht="28.5">
+    <row r="20" spans="1:14" ht="30">
       <c r="A20" s="17" t="s">
         <v>68</v>
       </c>
@@ -17907,7 +17926,7 @@
       <c r="M21" s="24"/>
       <c r="N21" s="32"/>
     </row>
-    <row r="22" spans="1:14" ht="28.5">
+    <row r="22" spans="1:14" ht="30">
       <c r="A22" s="17" t="s">
         <v>70</v>
       </c>
@@ -18001,18 +18020,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BT14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C13" sqref="C13"/>
       <selection pane="topRight" activeCell="C13" sqref="C13"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
-      <selection pane="bottomRight" activeCell="AL2" sqref="Z2:AL2"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
@@ -18126,7 +18145,7 @@
       <c r="AL1">
         <v>2016</v>
       </c>
-      <c r="AM1" s="40">
+      <c r="AM1" s="39">
         <v>2017</v>
       </c>
       <c r="AN1">
@@ -18311,139 +18330,139 @@
         <f>AM2</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="AM2" s="41">
+      <c r="AM2" s="40">
         <f>BNVFE!F8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="AN2" s="39">
+      <c r="AN2" s="38">
         <f>BNVFE!G8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="AO2" s="39">
+      <c r="AO2" s="38">
         <f>BNVFE!H8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="AP2" s="39">
+      <c r="AP2" s="38">
         <f>BNVFE!I8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="AQ2" s="39">
+      <c r="AQ2" s="38">
         <f>BNVFE!J8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="AR2" s="39">
+      <c r="AR2" s="38">
         <f>BNVFE!K8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="AS2" s="39">
+      <c r="AS2" s="38">
         <f>BNVFE!L8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="AT2" s="39">
+      <c r="AT2" s="38">
         <f>BNVFE!M8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="AU2" s="39">
+      <c r="AU2" s="38">
         <f>BNVFE!N8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="AV2" s="39">
+      <c r="AV2" s="38">
         <f>BNVFE!O8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="AW2" s="39">
+      <c r="AW2" s="38">
         <f>BNVFE!P8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="AX2" s="39">
+      <c r="AX2" s="38">
         <f>BNVFE!Q8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="AY2" s="39">
+      <c r="AY2" s="38">
         <f>BNVFE!R8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="AZ2" s="39">
+      <c r="AZ2" s="38">
         <f>BNVFE!S8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BA2" s="39">
+      <c r="BA2" s="38">
         <f>BNVFE!T8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BB2" s="39">
+      <c r="BB2" s="38">
         <f>BNVFE!U8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BC2" s="39">
+      <c r="BC2" s="38">
         <f>BNVFE!V8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BD2" s="39">
+      <c r="BD2" s="38">
         <f>BNVFE!W8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BE2" s="39">
+      <c r="BE2" s="38">
         <f>BNVFE!X8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BF2" s="39">
+      <c r="BF2" s="38">
         <f>BNVFE!Y8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BG2" s="39">
+      <c r="BG2" s="38">
         <f>BNVFE!Z8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BH2" s="39">
+      <c r="BH2" s="38">
         <f>BNVFE!AA8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BI2" s="39">
+      <c r="BI2" s="38">
         <f>BNVFE!AB8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BJ2" s="39">
+      <c r="BJ2" s="38">
         <f>BNVFE!AC8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BK2" s="39">
+      <c r="BK2" s="38">
         <f>BNVFE!AD8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BL2" s="39">
+      <c r="BL2" s="38">
         <f>BNVFE!AE8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BM2" s="39">
+      <c r="BM2" s="38">
         <f>BNVFE!AF8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BN2" s="39">
+      <c r="BN2" s="38">
         <f>BNVFE!AG8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BO2" s="39">
+      <c r="BO2" s="38">
         <f>BNVFE!AH8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BP2" s="39">
+      <c r="BP2" s="38">
         <f>BNVFE!AI8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BQ2" s="39">
+      <c r="BQ2" s="38">
         <f>BNVFE!AJ8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BR2" s="39">
+      <c r="BR2" s="38">
         <f>BNVFE!AK8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BS2" s="39">
+      <c r="BS2" s="38">
         <f>BNVFE!AL8</f>
         <v>2.6355456688469071E-4</v>
       </c>
-      <c r="BT2" s="39">
+      <c r="BT2" s="38">
         <f>BNVFE!AM8</f>
         <v>2.6355456688469071E-4</v>
       </c>
@@ -18478,194 +18497,194 @@
       <c r="W3" s="11"/>
       <c r="X3" s="37"/>
       <c r="Y3" s="14">
-        <f t="shared" ref="Y3:AB3" si="1">Y5/Z5*Z3</f>
-        <v>2.3042283446730118E-4</v>
+        <f t="shared" ref="Y3:Z13" si="1">Z3</f>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="Z3" s="14">
         <f t="shared" si="1"/>
-        <v>2.4395926371969503E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AA3" s="14">
-        <f t="shared" si="1"/>
-        <v>2.5749569297208889E-4</v>
+        <f t="shared" ref="AA3:AA13" si="2">AB3</f>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AB3" s="14">
-        <f t="shared" si="1"/>
-        <v>2.7103212222448275E-4</v>
+        <f t="shared" ref="AB3:AB13" si="3">AC3</f>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AC3" s="14">
-        <f t="shared" ref="AC3" si="2">AC5/AD5*AD3</f>
-        <v>2.8456855147687661E-4</v>
+        <f t="shared" ref="AC3:AC13" si="4">AD3</f>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AD3" s="14">
-        <f t="shared" ref="AD3" si="3">AD5/AE5*AE3</f>
-        <v>2.9810498072927046E-4</v>
+        <f t="shared" ref="AD3:AD13" si="5">AE3</f>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AE3" s="14">
-        <f t="shared" ref="AE3" si="4">AE5/AF5*AF3</f>
-        <v>3.1164140998166432E-4</v>
+        <f t="shared" ref="AE3:AE13" si="6">AF3</f>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AF3" s="14">
-        <f t="shared" ref="AF3" si="5">AF5/AG5*AG3</f>
-        <v>3.2517783923405818E-4</v>
+        <f t="shared" ref="AF3:AF13" si="7">AG3</f>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AG3" s="14">
-        <f t="shared" ref="AG3" si="6">AG5/AH5*AH3</f>
-        <v>3.3871426848645203E-4</v>
+        <f t="shared" ref="AG3:AG13" si="8">AH3</f>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AH3" s="14">
-        <f t="shared" ref="AH3" si="7">AH5/AI5*AI3</f>
-        <v>3.5225069773884589E-4</v>
+        <f t="shared" ref="AH3:AH13" si="9">AI3</f>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AI3" s="14">
-        <f t="shared" ref="AI3" si="8">AI5/AJ5*AJ3</f>
-        <v>3.6578712699123975E-4</v>
+        <f t="shared" ref="AI3:AI13" si="10">AJ3</f>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AJ3" s="14">
-        <f t="shared" ref="AJ3" si="9">AJ5/AK5*AK3</f>
-        <v>3.7932355624363361E-4</v>
+        <f t="shared" ref="AJ3:AJ13" si="11">AK3</f>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AK3" s="14">
-        <f>BNVFE!D9</f>
+        <f t="shared" ref="AK3:AK13" si="12">AL3</f>
         <v>4.0639641474842121E-4</v>
       </c>
       <c r="AL3" s="14">
-        <f>BNVFE!E9</f>
+        <f>AM3</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="AM3" s="41">
+      <c r="AM3" s="40">
         <f>BNVFE!F9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="AN3" s="39">
+      <c r="AN3" s="38">
         <f>BNVFE!G9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="AO3" s="39">
+      <c r="AO3" s="38">
         <f>BNVFE!H9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="AP3" s="39">
+      <c r="AP3" s="38">
         <f>BNVFE!I9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="AQ3" s="39">
+      <c r="AQ3" s="38">
         <f>BNVFE!J9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="AR3" s="39">
+      <c r="AR3" s="38">
         <f>BNVFE!K9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="AS3" s="39">
+      <c r="AS3" s="38">
         <f>BNVFE!L9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="AT3" s="39">
+      <c r="AT3" s="38">
         <f>BNVFE!M9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="AU3" s="39">
+      <c r="AU3" s="38">
         <f>BNVFE!N9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="AV3" s="39">
+      <c r="AV3" s="38">
         <f>BNVFE!O9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="AW3" s="39">
+      <c r="AW3" s="38">
         <f>BNVFE!P9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="AX3" s="39">
+      <c r="AX3" s="38">
         <f>BNVFE!Q9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="AY3" s="39">
+      <c r="AY3" s="38">
         <f>BNVFE!R9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="AZ3" s="39">
+      <c r="AZ3" s="38">
         <f>BNVFE!S9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BA3" s="39">
+      <c r="BA3" s="38">
         <f>BNVFE!T9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BB3" s="39">
+      <c r="BB3" s="38">
         <f>BNVFE!U9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BC3" s="39">
+      <c r="BC3" s="38">
         <f>BNVFE!V9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BD3" s="39">
+      <c r="BD3" s="38">
         <f>BNVFE!W9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BE3" s="39">
+      <c r="BE3" s="38">
         <f>BNVFE!X9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BF3" s="39">
+      <c r="BF3" s="38">
         <f>BNVFE!Y9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BG3" s="39">
+      <c r="BG3" s="38">
         <f>BNVFE!Z9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BH3" s="39">
+      <c r="BH3" s="38">
         <f>BNVFE!AA9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BI3" s="39">
+      <c r="BI3" s="38">
         <f>BNVFE!AB9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BJ3" s="39">
+      <c r="BJ3" s="38">
         <f>BNVFE!AC9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BK3" s="39">
+      <c r="BK3" s="38">
         <f>BNVFE!AD9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BL3" s="39">
+      <c r="BL3" s="38">
         <f>BNVFE!AE9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BM3" s="39">
+      <c r="BM3" s="38">
         <f>BNVFE!AF9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BN3" s="39">
+      <c r="BN3" s="38">
         <f>BNVFE!AG9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BO3" s="39">
+      <c r="BO3" s="38">
         <f>BNVFE!AH9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BP3" s="39">
+      <c r="BP3" s="38">
         <f>BNVFE!AI9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BQ3" s="39">
+      <c r="BQ3" s="38">
         <f>BNVFE!AJ9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BR3" s="39">
+      <c r="BR3" s="38">
         <f>BNVFE!AK9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BS3" s="39">
+      <c r="BS3" s="38">
         <f>BNVFE!AL9</f>
         <v>4.0639641474842121E-4</v>
       </c>
-      <c r="BT3" s="39">
+      <c r="BT3" s="38">
         <f>BNVFE!AM9</f>
         <v>4.0639641474842121E-4</v>
       </c>
@@ -18691,230 +18710,230 @@
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
       <c r="P4" s="14">
-        <f t="shared" ref="P4:AB4" si="10">P5/Q5*Q4</f>
-        <v>8.2462678444605397E-4</v>
+        <f t="shared" ref="P4:P11" si="13">Q4</f>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="Q4" s="14">
+        <f t="shared" ref="Q4" si="14">R4</f>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="R4" s="14">
+        <f t="shared" ref="R4" si="15">S4</f>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="S4" s="14">
+        <f t="shared" ref="S4" si="16">T4</f>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="T4" s="14">
+        <f t="shared" ref="T4" si="17">U4</f>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="U4" s="14">
+        <f t="shared" ref="U4" si="18">V4</f>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="V4" s="14">
+        <f t="shared" ref="V4" si="19">W4</f>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="W4" s="14">
+        <f t="shared" ref="W4" si="20">X4</f>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="X4" s="14">
+        <f t="shared" ref="X4" si="21">Y4</f>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" si="1"/>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="Z4" s="14">
+        <f t="shared" si="1"/>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AA4" s="14">
+        <f t="shared" si="2"/>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AB4" s="14">
+        <f t="shared" si="3"/>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AC4" s="14">
+        <f t="shared" si="4"/>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AD4" s="14">
+        <f t="shared" si="5"/>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AE4" s="14">
+        <f t="shared" si="6"/>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AF4" s="14">
+        <f t="shared" si="7"/>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AG4" s="14">
+        <f t="shared" si="8"/>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AH4" s="14">
+        <f t="shared" si="9"/>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AI4" s="14">
         <f t="shared" si="10"/>
-        <v>8.2462678444605397E-4</v>
-      </c>
-      <c r="R4" s="14">
-        <f t="shared" si="10"/>
-        <v>8.2462678444605397E-4</v>
-      </c>
-      <c r="S4" s="14">
-        <f t="shared" si="10"/>
-        <v>8.2462678444605397E-4</v>
-      </c>
-      <c r="T4" s="14">
-        <f t="shared" si="10"/>
-        <v>8.2462678444605397E-4</v>
-      </c>
-      <c r="U4" s="14">
-        <f t="shared" si="10"/>
-        <v>8.2462678444605397E-4</v>
-      </c>
-      <c r="V4" s="14">
-        <f t="shared" si="10"/>
-        <v>8.2462678444605397E-4</v>
-      </c>
-      <c r="W4" s="14">
-        <f t="shared" si="10"/>
-        <v>8.8343450560586273E-4</v>
-      </c>
-      <c r="X4" s="14">
-        <f t="shared" si="10"/>
-        <v>9.4224222676567149E-4</v>
-      </c>
-      <c r="Y4" s="14">
-        <f t="shared" si="10"/>
-        <v>1.0010499479254802E-3</v>
-      </c>
-      <c r="Z4" s="14">
-        <f t="shared" si="10"/>
-        <v>1.0598576690852889E-3</v>
-      </c>
-      <c r="AA4" s="14">
-        <f t="shared" si="10"/>
-        <v>1.1186653902450978E-3</v>
-      </c>
-      <c r="AB4" s="14">
-        <f t="shared" si="10"/>
-        <v>1.1774731114049064E-3</v>
-      </c>
-      <c r="AC4" s="14">
-        <f t="shared" ref="AC4" si="11">AC5/AD5*AD4</f>
-        <v>1.2362808325647153E-3</v>
-      </c>
-      <c r="AD4" s="14">
-        <f t="shared" ref="AD4" si="12">AD5/AE5*AE4</f>
-        <v>1.2950885537245241E-3</v>
-      </c>
-      <c r="AE4" s="14">
-        <f t="shared" ref="AE4" si="13">AE5/AF5*AF4</f>
-        <v>1.353896274884333E-3</v>
-      </c>
-      <c r="AF4" s="14">
-        <f t="shared" ref="AF4" si="14">AF5/AG5*AG4</f>
-        <v>1.4127039960441417E-3</v>
-      </c>
-      <c r="AG4" s="14">
-        <f t="shared" ref="AG4" si="15">AG5/AH5*AH4</f>
-        <v>1.4715117172039503E-3</v>
-      </c>
-      <c r="AH4" s="14">
-        <f t="shared" ref="AH4" si="16">AH5/AI5*AI4</f>
-        <v>1.5303194383637592E-3</v>
-      </c>
-      <c r="AI4" s="14">
-        <f t="shared" ref="AI4" si="17">AI5/AJ5*AJ4</f>
-        <v>1.5891271595235678E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="AJ4" s="14">
-        <f t="shared" ref="AJ4" si="18">AJ5/AK5*AK4</f>
-        <v>1.6479348806833767E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="AK4" s="14">
-        <f>BNVFE!D10</f>
+        <f t="shared" si="12"/>
         <v>1.7655503230029938E-3</v>
       </c>
       <c r="AL4" s="14">
-        <f>BNVFE!E10</f>
+        <f t="shared" ref="AL4" si="22">AM4</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AM4" s="41">
+      <c r="AM4" s="40">
         <f>BNVFE!F10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AN4" s="39">
+      <c r="AN4" s="38">
         <f>BNVFE!G10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AO4" s="39">
+      <c r="AO4" s="38">
         <f>BNVFE!H10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AP4" s="39">
+      <c r="AP4" s="38">
         <f>BNVFE!I10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AQ4" s="39">
+      <c r="AQ4" s="38">
         <f>BNVFE!J10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AR4" s="39">
+      <c r="AR4" s="38">
         <f>BNVFE!K10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AS4" s="39">
+      <c r="AS4" s="38">
         <f>BNVFE!L10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AT4" s="39">
+      <c r="AT4" s="38">
         <f>BNVFE!M10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AU4" s="39">
+      <c r="AU4" s="38">
         <f>BNVFE!N10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AV4" s="39">
+      <c r="AV4" s="38">
         <f>BNVFE!O10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AW4" s="39">
+      <c r="AW4" s="38">
         <f>BNVFE!P10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AX4" s="39">
+      <c r="AX4" s="38">
         <f>BNVFE!Q10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AY4" s="39">
+      <c r="AY4" s="38">
         <f>BNVFE!R10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AZ4" s="39">
+      <c r="AZ4" s="38">
         <f>BNVFE!S10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BA4" s="39">
+      <c r="BA4" s="38">
         <f>BNVFE!T10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BB4" s="39">
+      <c r="BB4" s="38">
         <f>BNVFE!U10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BC4" s="39">
+      <c r="BC4" s="38">
         <f>BNVFE!V10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BD4" s="39">
+      <c r="BD4" s="38">
         <f>BNVFE!W10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BE4" s="39">
+      <c r="BE4" s="38">
         <f>BNVFE!X10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BF4" s="39">
+      <c r="BF4" s="38">
         <f>BNVFE!Y10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BG4" s="39">
+      <c r="BG4" s="38">
         <f>BNVFE!Z10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BH4" s="39">
+      <c r="BH4" s="38">
         <f>BNVFE!AA10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BI4" s="39">
+      <c r="BI4" s="38">
         <f>BNVFE!AB10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BJ4" s="39">
+      <c r="BJ4" s="38">
         <f>BNVFE!AC10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BK4" s="39">
+      <c r="BK4" s="38">
         <f>BNVFE!AD10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BL4" s="39">
+      <c r="BL4" s="38">
         <f>BNVFE!AE10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BM4" s="39">
+      <c r="BM4" s="38">
         <f>BNVFE!AF10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BN4" s="39">
+      <c r="BN4" s="38">
         <f>BNVFE!AG10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BO4" s="39">
+      <c r="BO4" s="38">
         <f>BNVFE!AH10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BP4" s="39">
+      <c r="BP4" s="38">
         <f>BNVFE!AI10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BQ4" s="39">
+      <c r="BQ4" s="38">
         <f>BNVFE!AJ10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BR4" s="39">
+      <c r="BR4" s="38">
         <f>BNVFE!AK10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BS4" s="39">
+      <c r="BS4" s="38">
         <f>BNVFE!AL10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BT4" s="39">
+      <c r="BT4" s="38">
         <f>BNVFE!AM10</f>
         <v>1.7655503230029938E-3</v>
       </c>
@@ -18935,118 +18954,118 @@
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="K5" s="14">
-        <f t="shared" ref="K5:T5" si="19">L5</f>
-        <v>6.8252955322291439E-4</v>
+        <f t="shared" ref="K5" si="23">L5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="L5" s="14">
-        <f t="shared" si="19"/>
-        <v>6.8252955322291439E-4</v>
+        <f t="shared" ref="L5" si="24">M5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="M5" s="14">
-        <f t="shared" si="19"/>
-        <v>6.8252955322291439E-4</v>
+        <f t="shared" ref="M5" si="25">N5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="N5" s="14">
-        <f t="shared" si="19"/>
-        <v>6.8252955322291439E-4</v>
+        <f t="shared" ref="N5" si="26">O5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="O5" s="14">
-        <f t="shared" si="19"/>
-        <v>6.8252955322291439E-4</v>
+        <f t="shared" ref="O5:O11" si="27">P5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="P5" s="14">
-        <f t="shared" si="19"/>
-        <v>6.8252955322291439E-4</v>
+        <f t="shared" ref="P5:P11" si="28">Q5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Q5" s="14">
-        <f t="shared" si="19"/>
-        <v>6.8252955322291439E-4</v>
+        <f t="shared" ref="Q5:Q11" si="29">R5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="R5" s="14">
-        <f t="shared" si="19"/>
-        <v>6.8252955322291439E-4</v>
+        <f t="shared" ref="R5:R11" si="30">S5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="S5" s="14">
-        <f t="shared" si="19"/>
-        <v>6.8252955322291439E-4</v>
+        <f t="shared" ref="S5:S11" si="31">T5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="T5" s="14">
-        <f t="shared" si="19"/>
-        <v>6.8252955322291439E-4</v>
+        <f t="shared" ref="T5:T11" si="32">U5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="U5" s="14">
-        <f>V5</f>
-        <v>6.8252955322291439E-4</v>
+        <f t="shared" ref="U5:U11" si="33">V5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="V5" s="14">
-        <f>Calculations!B22</f>
-        <v>6.8252955322291439E-4</v>
+        <f t="shared" ref="V5:AK13" si="34">W5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="W5" s="14">
-        <f>($AK$5-$V$5)/COUNT($V$1:$AK$1)+V5</f>
-        <v>7.3120370303994325E-4</v>
+        <f t="shared" ref="W5:W11" si="35">X5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="X5" s="14">
-        <f t="shared" ref="X5:AB5" si="20">($AK$5-$V$5)/COUNT($V$1:$AK$1)+W5</f>
-        <v>7.7987785285697211E-4</v>
+        <f t="shared" ref="X5:X11" si="36">Y5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Y5" s="14">
-        <f t="shared" si="20"/>
-        <v>8.2855200267400097E-4</v>
+        <f t="shared" ref="Y5:Y11" si="37">Z5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Z5" s="14">
-        <f t="shared" si="20"/>
-        <v>8.7722615249102983E-4</v>
+        <f t="shared" ref="Z5:Z11" si="38">AA5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AA5" s="14">
-        <f t="shared" si="20"/>
-        <v>9.2590030230805869E-4</v>
+        <f t="shared" ref="AA5:AA11" si="39">AB5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AB5" s="14">
-        <f t="shared" si="20"/>
-        <v>9.7457445212508756E-4</v>
+        <f t="shared" ref="AB5:AB11" si="40">AC5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AC5" s="14">
-        <f t="shared" ref="AC5" si="21">($AK$5-$V$5)/COUNT($V$1:$AK$1)+AB5</f>
-        <v>1.0232486019421164E-3</v>
+        <f t="shared" ref="AC5:AC11" si="41">AD5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AD5" s="14">
-        <f t="shared" ref="AD5" si="22">($AK$5-$V$5)/COUNT($V$1:$AK$1)+AC5</f>
-        <v>1.0719227517591453E-3</v>
+        <f t="shared" ref="AD5:AD11" si="42">AE5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AE5" s="14">
-        <f t="shared" ref="AE5" si="23">($AK$5-$V$5)/COUNT($V$1:$AK$1)+AD5</f>
-        <v>1.1205969015761741E-3</v>
+        <f t="shared" ref="AE5:AE11" si="43">AF5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AF5" s="14">
-        <f t="shared" ref="AF5" si="24">($AK$5-$V$5)/COUNT($V$1:$AK$1)+AE5</f>
-        <v>1.169271051393203E-3</v>
+        <f t="shared" ref="AF5:AF11" si="44">AG5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AG5" s="14">
-        <f t="shared" ref="AG5" si="25">($AK$5-$V$5)/COUNT($V$1:$AK$1)+AF5</f>
-        <v>1.2179452012102319E-3</v>
+        <f t="shared" ref="AG5:AG11" si="45">AH5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AH5" s="14">
-        <f t="shared" ref="AH5" si="26">($AK$5-$V$5)/COUNT($V$1:$AK$1)+AG5</f>
-        <v>1.2666193510272607E-3</v>
+        <f t="shared" ref="AH5:AH11" si="46">AI5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AI5" s="14">
-        <f t="shared" ref="AI5" si="27">($AK$5-$V$5)/COUNT($V$1:$AK$1)+AH5</f>
-        <v>1.3152935008442896E-3</v>
+        <f t="shared" ref="AI5:AI11" si="47">AJ5</f>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AJ5" s="14">
-        <f t="shared" ref="AJ5" si="28">($AK$5-$V$5)/COUNT($V$1:$AK$1)+AI5</f>
-        <v>1.3639676506613184E-3</v>
-      </c>
-      <c r="AK5" s="38">
-        <f>BNVFE!D11</f>
-        <v>1.461315950295376E-3</v>
-      </c>
-      <c r="AL5" s="38">
-        <f>BNVFE!E11</f>
-        <v>1.4759291097983297E-3</v>
-      </c>
-      <c r="AM5" s="42">
+        <f t="shared" ref="AJ5:AJ11" si="48">AK5</f>
+        <v>1.4906884008963129E-3</v>
+      </c>
+      <c r="AK5" s="14">
+        <f t="shared" ref="AK5:AK11" si="49">AL5</f>
+        <v>1.4906884008963129E-3</v>
+      </c>
+      <c r="AL5" s="14">
+        <f t="shared" ref="AL5:AL11" si="50">AM5</f>
+        <v>1.4906884008963129E-3</v>
+      </c>
+      <c r="AM5" s="41">
         <f>BNVFE!F11</f>
         <v>1.4906884008963129E-3</v>
       </c>
@@ -19202,103 +19221,103 @@
       <c r="L6" s="11"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="4">
-        <f t="shared" ref="O6:AJ6" si="29">TREND($AK6:$BR6,$AK$1:$BR$1,O$1)</f>
-        <v>8.9036933147232898E-5</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="O6" s="14">
+        <f t="shared" si="27"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="P6" s="14">
+        <f t="shared" si="28"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="Q6" s="14">
         <f t="shared" si="29"/>
-        <v>9.1309980917225406E-5</v>
-      </c>
-      <c r="Q6" s="4">
-        <f t="shared" si="29"/>
-        <v>9.3583028687217913E-5</v>
-      </c>
-      <c r="R6" s="4">
-        <f t="shared" si="29"/>
-        <v>9.5856076457210421E-5</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="29"/>
-        <v>9.8129124227203796E-5</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.004021719971963E-4</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.0267521976718881E-4</v>
-      </c>
-      <c r="V6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.0494826753718132E-4</v>
-      </c>
-      <c r="W6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.0722131530717469E-4</v>
-      </c>
-      <c r="X6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.094943630771672E-4</v>
-      </c>
-      <c r="Y6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.1176741084715971E-4</v>
-      </c>
-      <c r="Z6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.1404045861715222E-4</v>
-      </c>
-      <c r="AA6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.1631350638714472E-4</v>
-      </c>
-      <c r="AB6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.185865541571381E-4</v>
-      </c>
-      <c r="AC6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.2085960192713061E-4</v>
-      </c>
-      <c r="AD6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.2313264969712311E-4</v>
-      </c>
-      <c r="AE6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.2540569746711562E-4</v>
-      </c>
-      <c r="AF6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.27678745237109E-4</v>
-      </c>
-      <c r="AG6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.299517930071015E-4</v>
-      </c>
-      <c r="AH6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.3222484077709401E-4</v>
-      </c>
-      <c r="AI6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.3449788854708652E-4</v>
-      </c>
-      <c r="AJ6" s="4">
-        <f t="shared" si="29"/>
-        <v>1.3677093631707903E-4</v>
-      </c>
-      <c r="AK6" s="38">
-        <f>BNVFE!D12</f>
-        <v>1.4152360440753146E-4</v>
-      </c>
-      <c r="AL6" s="38">
-        <f>BNVFE!E12</f>
-        <v>1.4336341126482935E-4</v>
-      </c>
-      <c r="AM6" s="42">
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" si="30"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" si="31"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="T6" s="14">
+        <f t="shared" si="32"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="U6" s="14">
+        <f t="shared" si="33"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="V6" s="14">
+        <f t="shared" si="34"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="W6" s="14">
+        <f t="shared" si="35"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="X6" s="14">
+        <f t="shared" si="36"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" si="37"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="Z6" s="14">
+        <f t="shared" si="38"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="AA6" s="14">
+        <f t="shared" si="39"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="AB6" s="14">
+        <f t="shared" si="40"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="AC6" s="14">
+        <f t="shared" si="41"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="AD6" s="14">
+        <f t="shared" si="42"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="AE6" s="14">
+        <f t="shared" si="43"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="AF6" s="14">
+        <f t="shared" si="44"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="AG6" s="14">
+        <f t="shared" si="45"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="AH6" s="14">
+        <f t="shared" si="46"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="AI6" s="14">
+        <f t="shared" si="47"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="AJ6" s="14">
+        <f t="shared" si="48"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="AK6" s="14">
+        <f t="shared" si="49"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="AL6" s="14">
+        <f t="shared" si="50"/>
+        <v>1.4522713561127213E-4</v>
+      </c>
+      <c r="AM6" s="41">
         <f>BNVFE!F12</f>
         <v>1.4522713561127213E-4</v>
       </c>
@@ -19454,103 +19473,103 @@
       <c r="L7" s="11"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="4">
-        <f t="shared" ref="O7:AJ7" si="30">TREND($AK7:$BR7,$AK$1:$BR$1,O$1)-($AO7-$AK7)</f>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="P7" s="4">
+      <c r="O7" s="14">
+        <f t="shared" si="27"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="P7" s="14">
+        <f t="shared" si="28"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" si="29"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="R7" s="14">
         <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="R7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="U7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="V7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="W7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="X7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="Y7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="Z7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="AA7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="AB7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="AC7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="AD7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="AE7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="AF7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="AG7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="AH7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="AI7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="AJ7" s="4">
-        <f t="shared" si="30"/>
-        <v>1.110418338707646E-4</v>
-      </c>
-      <c r="AK7" s="38">
-        <f>BNVFE!D13</f>
         <v>1.1104183387076455E-4</v>
       </c>
-      <c r="AL7" s="38">
-        <f>BNVFE!E13</f>
+      <c r="S7" s="14">
+        <f t="shared" si="31"/>
         <v>1.1104183387076455E-4</v>
       </c>
-      <c r="AM7" s="42">
+      <c r="T7" s="14">
+        <f t="shared" si="32"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="U7" s="14">
+        <f t="shared" si="33"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="V7" s="14">
+        <f t="shared" si="34"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="W7" s="14">
+        <f t="shared" si="35"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="X7" s="14">
+        <f t="shared" si="36"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="37"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="Z7" s="14">
+        <f t="shared" si="38"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="AA7" s="14">
+        <f t="shared" si="39"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="AB7" s="14">
+        <f t="shared" si="40"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="AC7" s="14">
+        <f t="shared" si="41"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="AD7" s="14">
+        <f t="shared" si="42"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="AE7" s="14">
+        <f t="shared" si="43"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="AF7" s="14">
+        <f t="shared" si="44"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="AG7" s="14">
+        <f t="shared" si="45"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="AH7" s="14">
+        <f t="shared" si="46"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="AI7" s="14">
+        <f t="shared" si="47"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="AJ7" s="14">
+        <f t="shared" si="48"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="AK7" s="14">
+        <f t="shared" si="49"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="AL7" s="14">
+        <f t="shared" si="50"/>
+        <v>1.1104183387076455E-4</v>
+      </c>
+      <c r="AM7" s="41">
         <f>BNVFE!F13</f>
         <v>1.1104183387076455E-4</v>
       </c>
@@ -19696,143 +19715,143 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="4">
-        <f t="shared" ref="E8:AI8" si="31">$AK$8</f>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="14">
+        <f t="shared" ref="E8:E9" si="51">F8</f>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" ref="F8:F11" si="52">G8</f>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" ref="G8:G11" si="53">H8</f>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" ref="H8:H11" si="54">I8</f>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" ref="I8:I11" si="55">J8</f>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" ref="J8:J11" si="56">K8</f>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" ref="K8:K11" si="57">L8</f>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="L8" s="14">
+        <f t="shared" ref="L8:L11" si="58">M8</f>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" ref="M8:M11" si="59">N8</f>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="N8" s="14">
+        <f t="shared" ref="N8:N11" si="60">O8</f>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" si="27"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="P8" s="14">
+        <f t="shared" si="28"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" si="29"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="30"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="S8" s="14">
         <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="R8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="U8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="V8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="W8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="X8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="Y8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="Z8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="AA8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="AB8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="AC8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="AD8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="AE8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="AF8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="AG8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="AH8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="AI8" s="4">
-        <f t="shared" si="31"/>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="AJ8" s="4">
-        <f>$AK$8</f>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="AK8" s="38">
-        <f>BNVFE!D14</f>
-        <v>2.812562520651618E-3</v>
-      </c>
-      <c r="AL8" s="38">
-        <f>BNVFE!E14</f>
-        <v>3.0375675223037477E-3</v>
-      </c>
-      <c r="AM8" s="42">
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="T8" s="14">
+        <f t="shared" si="32"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="U8" s="14">
+        <f t="shared" si="33"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="V8" s="14">
+        <f t="shared" si="34"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="W8" s="14">
+        <f t="shared" si="35"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="X8" s="14">
+        <f t="shared" si="36"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="Y8" s="14">
+        <f t="shared" si="37"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="Z8" s="14">
+        <f t="shared" si="38"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="AA8" s="14">
+        <f t="shared" si="39"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="AB8" s="14">
+        <f t="shared" si="40"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="AC8" s="14">
+        <f t="shared" si="41"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="AD8" s="14">
+        <f t="shared" si="42"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="AE8" s="14">
+        <f t="shared" si="43"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="AF8" s="14">
+        <f t="shared" si="44"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="AG8" s="14">
+        <f t="shared" si="45"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="AH8" s="14">
+        <f t="shared" si="46"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="AI8" s="14">
+        <f t="shared" si="47"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="AJ8" s="14">
+        <f t="shared" si="48"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="AK8" s="14">
+        <f t="shared" si="49"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="AL8" s="14">
+        <f t="shared" si="50"/>
+        <v>3.2805729240880477E-3</v>
+      </c>
+      <c r="AM8" s="41">
         <f>BNVFE!F14</f>
         <v>3.2805729240880477E-3</v>
       </c>
@@ -19978,143 +19997,143 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="4">
-        <f t="shared" ref="E9:AJ12" si="32">TREND($AK9:$BR9,$AK$1:$BR$1,E$1)</f>
-        <v>1.4691408670862577E-3</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="14">
+        <f t="shared" si="51"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="52"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="53"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="54"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="55"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="56"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="57"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="L9" s="14">
+        <f t="shared" si="58"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" si="59"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="N9" s="14">
+        <f t="shared" si="60"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="O9" s="14">
+        <f t="shared" si="27"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="P9" s="14">
+        <f t="shared" si="28"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="Q9" s="14">
+        <f t="shared" si="29"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="30"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="S9" s="14">
+        <f t="shared" si="31"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="T9" s="14">
         <f t="shared" si="32"/>
-        <v>1.4592271545838982E-3</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4493134420815387E-3</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4393997295791792E-3</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4294860170768198E-3</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4195723045744603E-3</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4096585920721008E-3</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.3997448795697413E-3</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.3898311670673819E-3</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.3799174545650189E-3</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.3700037420626594E-3</v>
-      </c>
-      <c r="P9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.3600900295603E-3</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.3501763170579405E-3</v>
-      </c>
-      <c r="R9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.340262604555581E-3</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.3303488920532215E-3</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.320435179550862E-3</v>
-      </c>
-      <c r="U9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.3105214670485026E-3</v>
-      </c>
-      <c r="V9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.3006077545461431E-3</v>
-      </c>
-      <c r="W9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.2906940420437836E-3</v>
-      </c>
-      <c r="X9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.2807803295414207E-3</v>
-      </c>
-      <c r="Y9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.2708666170390612E-3</v>
-      </c>
-      <c r="Z9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.2609529045367017E-3</v>
-      </c>
-      <c r="AA9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.2510391920343422E-3</v>
-      </c>
-      <c r="AB9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.2411254795319827E-3</v>
-      </c>
-      <c r="AC9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.2312117670296233E-3</v>
-      </c>
-      <c r="AD9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.2212980545272638E-3</v>
-      </c>
-      <c r="AE9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.2113843420249043E-3</v>
-      </c>
-      <c r="AF9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.2014706295225448E-3</v>
-      </c>
-      <c r="AG9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.1915569170201853E-3</v>
-      </c>
-      <c r="AH9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.1816432045178224E-3</v>
-      </c>
-      <c r="AI9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.1717294920154629E-3</v>
-      </c>
-      <c r="AJ9" s="4">
-        <f t="shared" si="32"/>
-        <v>1.1618157795131034E-3</v>
-      </c>
-      <c r="AK9" s="38">
-        <f>BNVFE!D15</f>
-        <v>1.1609415177744277E-3</v>
-      </c>
-      <c r="AL9" s="38">
-        <f>BNVFE!E15</f>
-        <v>1.1493321025966834E-3</v>
-      </c>
-      <c r="AM9" s="42">
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="U9" s="14">
+        <f t="shared" si="33"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="V9" s="14">
+        <f t="shared" si="34"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="W9" s="14">
+        <f t="shared" si="35"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="X9" s="14">
+        <f t="shared" si="36"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="Y9" s="14">
+        <f t="shared" si="37"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="Z9" s="14">
+        <f t="shared" si="38"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="AA9" s="14">
+        <f t="shared" si="39"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="AB9" s="14">
+        <f t="shared" si="40"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="AC9" s="14">
+        <f t="shared" si="41"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="AD9" s="14">
+        <f t="shared" si="42"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="AE9" s="14">
+        <f t="shared" si="43"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="AF9" s="14">
+        <f t="shared" si="44"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="AG9" s="14">
+        <f t="shared" si="45"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="AH9" s="14">
+        <f t="shared" si="46"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="AI9" s="14">
+        <f t="shared" si="47"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="AJ9" s="14">
+        <f t="shared" si="48"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="AK9" s="14">
+        <f t="shared" si="49"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="AL9" s="14">
+        <f t="shared" si="50"/>
+        <v>1.1378387815707165E-3</v>
+      </c>
+      <c r="AM9" s="41">
         <f>BNVFE!F15</f>
         <v>1.1378387815707165E-3</v>
       </c>
@@ -20261,139 +20280,139 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="4">
+      <c r="F10" s="14">
+        <f t="shared" si="52"/>
+        <v>1.4401514248185007E-4</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="53"/>
+        <v>1.4401514248185007E-4</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="54"/>
+        <v>1.4401514248185007E-4</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="55"/>
+        <v>1.4401514248185007E-4</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="56"/>
+        <v>1.4401514248185007E-4</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="57"/>
+        <v>1.4401514248185007E-4</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="58"/>
+        <v>1.4401514248185007E-4</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="59"/>
+        <v>1.4401514248185007E-4</v>
+      </c>
+      <c r="N10" s="14">
+        <f t="shared" si="60"/>
+        <v>1.4401514248185007E-4</v>
+      </c>
+      <c r="O10" s="14">
+        <f t="shared" si="27"/>
+        <v>1.4401514248185007E-4</v>
+      </c>
+      <c r="P10" s="14">
+        <f t="shared" si="28"/>
+        <v>1.4401514248185007E-4</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" si="29"/>
+        <v>1.4401514248185007E-4</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" si="30"/>
+        <v>1.4401514248185007E-4</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="31"/>
+        <v>1.4401514248185007E-4</v>
+      </c>
+      <c r="T10" s="14">
         <f t="shared" si="32"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="G10" s="4">
-        <f t="shared" si="32"/>
+      <c r="U10" s="14">
+        <f t="shared" si="33"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="H10" s="4">
-        <f t="shared" si="32"/>
+      <c r="V10" s="14">
+        <f t="shared" si="34"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="I10" s="4">
-        <f t="shared" si="32"/>
+      <c r="W10" s="14">
+        <f t="shared" si="35"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="J10" s="4">
-        <f t="shared" si="32"/>
+      <c r="X10" s="14">
+        <f t="shared" si="36"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="K10" s="4">
-        <f t="shared" si="32"/>
+      <c r="Y10" s="14">
+        <f t="shared" si="37"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="L10" s="4">
-        <f t="shared" si="32"/>
+      <c r="Z10" s="14">
+        <f t="shared" si="38"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="M10" s="4">
-        <f t="shared" si="32"/>
+      <c r="AA10" s="14">
+        <f t="shared" si="39"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="N10" s="4">
-        <f t="shared" si="32"/>
+      <c r="AB10" s="14">
+        <f t="shared" si="40"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="O10" s="4">
-        <f t="shared" si="32"/>
+      <c r="AC10" s="14">
+        <f t="shared" si="41"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="P10" s="4">
-        <f t="shared" si="32"/>
+      <c r="AD10" s="14">
+        <f t="shared" si="42"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="32"/>
+      <c r="AE10" s="14">
+        <f t="shared" si="43"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="R10" s="4">
-        <f t="shared" si="32"/>
+      <c r="AF10" s="14">
+        <f t="shared" si="44"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="S10" s="4">
-        <f t="shared" si="32"/>
+      <c r="AG10" s="14">
+        <f t="shared" si="45"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="T10" s="4">
-        <f t="shared" si="32"/>
+      <c r="AH10" s="14">
+        <f t="shared" si="46"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="U10" s="4">
-        <f t="shared" si="32"/>
+      <c r="AI10" s="14">
+        <f t="shared" si="47"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="V10" s="4">
-        <f t="shared" si="32"/>
+      <c r="AJ10" s="14">
+        <f t="shared" si="48"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="W10" s="4">
-        <f t="shared" si="32"/>
+      <c r="AK10" s="14">
+        <f t="shared" si="49"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="X10" s="4">
-        <f t="shared" si="32"/>
+      <c r="AL10" s="14">
+        <f t="shared" si="50"/>
         <v>1.4401514248185007E-4</v>
       </c>
-      <c r="Y10" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4401514248185007E-4</v>
-      </c>
-      <c r="Z10" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4401514248185007E-4</v>
-      </c>
-      <c r="AA10" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4401514248185007E-4</v>
-      </c>
-      <c r="AB10" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4401514248185007E-4</v>
-      </c>
-      <c r="AC10" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4401514248185007E-4</v>
-      </c>
-      <c r="AD10" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4401514248185007E-4</v>
-      </c>
-      <c r="AE10" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4401514248185007E-4</v>
-      </c>
-      <c r="AF10" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4401514248185007E-4</v>
-      </c>
-      <c r="AG10" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4401514248185007E-4</v>
-      </c>
-      <c r="AH10" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4401514248185007E-4</v>
-      </c>
-      <c r="AI10" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4401514248185007E-4</v>
-      </c>
-      <c r="AJ10" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4401514248185007E-4</v>
-      </c>
-      <c r="AK10" s="38">
-        <f>BNVFE!D16</f>
-        <v>1.4401514248185007E-4</v>
-      </c>
-      <c r="AL10" s="38">
-        <f>BNVFE!E16</f>
-        <v>1.4401514248185007E-4</v>
-      </c>
-      <c r="AM10" s="42">
+      <c r="AM10" s="41">
         <f>BNVFE!F16</f>
         <v>1.4401514248185007E-4</v>
       </c>
@@ -20540,139 +20559,139 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="4">
+      <c r="F11" s="14">
+        <f t="shared" si="52"/>
+        <v>5.3485038907266408E-4</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="53"/>
+        <v>5.3485038907266408E-4</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="54"/>
+        <v>5.3485038907266408E-4</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="55"/>
+        <v>5.3485038907266408E-4</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="56"/>
+        <v>5.3485038907266408E-4</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="57"/>
+        <v>5.3485038907266408E-4</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="58"/>
+        <v>5.3485038907266408E-4</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="59"/>
+        <v>5.3485038907266408E-4</v>
+      </c>
+      <c r="N11" s="14">
+        <f t="shared" si="60"/>
+        <v>5.3485038907266408E-4</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="27"/>
+        <v>5.3485038907266408E-4</v>
+      </c>
+      <c r="P11" s="14">
+        <f t="shared" si="28"/>
+        <v>5.3485038907266408E-4</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="29"/>
+        <v>5.3485038907266408E-4</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="30"/>
+        <v>5.3485038907266408E-4</v>
+      </c>
+      <c r="S11" s="14">
+        <f t="shared" si="31"/>
+        <v>5.3485038907266408E-4</v>
+      </c>
+      <c r="T11" s="14">
         <f t="shared" si="32"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" si="32"/>
+      <c r="U11" s="14">
+        <f t="shared" si="33"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="H11" s="4">
-        <f t="shared" si="32"/>
+      <c r="V11" s="14">
+        <f t="shared" si="34"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" si="32"/>
+      <c r="W11" s="14">
+        <f t="shared" si="35"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="J11" s="4">
-        <f t="shared" si="32"/>
+      <c r="X11" s="14">
+        <f t="shared" si="36"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="K11" s="4">
-        <f t="shared" si="32"/>
+      <c r="Y11" s="14">
+        <f t="shared" si="37"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="L11" s="4">
-        <f t="shared" si="32"/>
+      <c r="Z11" s="14">
+        <f t="shared" si="38"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="M11" s="4">
-        <f t="shared" si="32"/>
+      <c r="AA11" s="14">
+        <f t="shared" si="39"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="N11" s="4">
-        <f t="shared" si="32"/>
+      <c r="AB11" s="14">
+        <f t="shared" si="40"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="O11" s="4">
-        <f t="shared" si="32"/>
+      <c r="AC11" s="14">
+        <f t="shared" si="41"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="P11" s="4">
-        <f t="shared" si="32"/>
+      <c r="AD11" s="14">
+        <f t="shared" si="42"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="32"/>
+      <c r="AE11" s="14">
+        <f t="shared" si="43"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="R11" s="4">
-        <f t="shared" si="32"/>
+      <c r="AF11" s="14">
+        <f t="shared" si="44"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="S11" s="4">
-        <f t="shared" si="32"/>
+      <c r="AG11" s="14">
+        <f t="shared" si="45"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="T11" s="4">
-        <f t="shared" si="32"/>
+      <c r="AH11" s="14">
+        <f t="shared" si="46"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="U11" s="4">
-        <f t="shared" si="32"/>
+      <c r="AI11" s="14">
+        <f t="shared" si="47"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="V11" s="4">
-        <f t="shared" si="32"/>
+      <c r="AJ11" s="14">
+        <f t="shared" si="48"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="W11" s="4">
-        <f t="shared" si="32"/>
+      <c r="AK11" s="14">
+        <f t="shared" si="49"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="X11" s="4">
-        <f t="shared" si="32"/>
+      <c r="AL11" s="14">
+        <f t="shared" si="50"/>
         <v>5.3485038907266408E-4</v>
       </c>
-      <c r="Y11" s="4">
-        <f t="shared" si="32"/>
-        <v>5.3485038907266408E-4</v>
-      </c>
-      <c r="Z11" s="4">
-        <f t="shared" si="32"/>
-        <v>5.3485038907266408E-4</v>
-      </c>
-      <c r="AA11" s="4">
-        <f t="shared" si="32"/>
-        <v>5.3485038907266408E-4</v>
-      </c>
-      <c r="AB11" s="4">
-        <f t="shared" si="32"/>
-        <v>5.3485038907266408E-4</v>
-      </c>
-      <c r="AC11" s="4">
-        <f t="shared" si="32"/>
-        <v>5.3485038907266408E-4</v>
-      </c>
-      <c r="AD11" s="4">
-        <f t="shared" si="32"/>
-        <v>5.3485038907266408E-4</v>
-      </c>
-      <c r="AE11" s="4">
-        <f t="shared" si="32"/>
-        <v>5.3485038907266408E-4</v>
-      </c>
-      <c r="AF11" s="4">
-        <f t="shared" si="32"/>
-        <v>5.3485038907266408E-4</v>
-      </c>
-      <c r="AG11" s="4">
-        <f t="shared" si="32"/>
-        <v>5.3485038907266408E-4</v>
-      </c>
-      <c r="AH11" s="4">
-        <f t="shared" si="32"/>
-        <v>5.3485038907266408E-4</v>
-      </c>
-      <c r="AI11" s="4">
-        <f t="shared" si="32"/>
-        <v>5.3485038907266408E-4</v>
-      </c>
-      <c r="AJ11" s="4">
-        <f t="shared" si="32"/>
-        <v>5.3485038907266408E-4</v>
-      </c>
-      <c r="AK11" s="38">
-        <f>BNVFE!D17</f>
-        <v>5.3485038907266408E-4</v>
-      </c>
-      <c r="AL11" s="38">
-        <f>BNVFE!E17</f>
-        <v>5.3485038907266408E-4</v>
-      </c>
-      <c r="AM11" s="42">
+      <c r="AM11" s="41">
         <f>BNVFE!F17</f>
         <v>5.3485038907266408E-4</v>
       </c>
@@ -20835,75 +20854,75 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="W12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="X12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="Y12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="Z12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="AA12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="AB12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="AC12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="AD12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="AE12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="AF12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="AG12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="AH12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="AI12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="AJ12" s="4">
-        <f t="shared" si="32"/>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="AK12" s="38">
-        <f>BNVFE!D18</f>
+      <c r="V12" s="14">
+        <f t="shared" si="34"/>
         <v>5.9683256416215671E-4</v>
       </c>
-      <c r="AL12" s="38">
-        <f>BNVFE!E18</f>
+      <c r="W12" s="14">
+        <f t="shared" si="34"/>
         <v>5.9683256416215671E-4</v>
       </c>
-      <c r="AM12" s="42">
+      <c r="X12" s="14">
+        <f t="shared" si="34"/>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="Y12" s="14">
+        <f t="shared" si="34"/>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="Z12" s="14">
+        <f t="shared" si="34"/>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="AA12" s="14">
+        <f t="shared" si="34"/>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="AB12" s="14">
+        <f t="shared" si="34"/>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="AC12" s="14">
+        <f t="shared" si="34"/>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="AD12" s="14">
+        <f t="shared" si="34"/>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="AE12" s="14">
+        <f t="shared" si="34"/>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="AF12" s="14">
+        <f t="shared" si="34"/>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="AG12" s="14">
+        <f t="shared" si="34"/>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="AH12" s="14">
+        <f t="shared" si="34"/>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="AI12" s="14">
+        <f t="shared" si="34"/>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="AJ12" s="14">
+        <f t="shared" si="34"/>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="AK12" s="14">
+        <f t="shared" si="34"/>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="AL12" s="14">
+        <f t="shared" ref="AL3:AL13" si="61">AM12</f>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="AM12" s="41">
         <f>BNVFE!F18</f>
         <v>5.9683256416215671E-4</v>
       </c>
@@ -21065,82 +21084,82 @@
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12">
-        <f t="shared" ref="T13:AJ13" si="33">$AK13</f>
+        <f t="shared" ref="T13:AJ13" si="62">$AK13</f>
         <v>0</v>
       </c>
       <c r="U13" s="12">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="38">
-        <f>BNVFE!D19</f>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="38">
-        <f>BNVFE!E19</f>
-        <v>0</v>
-      </c>
-      <c r="AM13" s="42">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="41">
         <f>BNVFE!F19</f>
         <v>0</v>
       </c>
@@ -21288,7 +21307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21298,12 +21317,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="30">
       <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
@@ -22427,7 +22446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -22437,12 +22456,12 @@
       <selection activeCell="B4" sqref="B4:AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="30">
       <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
@@ -22555,51 +22574,51 @@
       </c>
       <c r="B2" s="4">
         <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>7.3371481501430095E-4</v>
+        <v>1.29405174169892E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>7.7681765552850242E-4</v>
+        <v>1.29405174169892E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>8.199204960427039E-4</v>
+        <v>1.29405174169892E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>8.6302333655690537E-4</v>
+        <v>1.29405174169892E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>9.0612617707110695E-4</v>
+        <v>1.29405174169892E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>9.4922901758530843E-4</v>
+        <v>1.29405174169892E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>9.9233185809950979E-4</v>
+        <v>1.29405174169892E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>1.0354346986137114E-3</v>
+        <v>1.29405174169892E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>1.0785375391279127E-3</v>
+        <v>1.29405174169892E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>1.1216403796421143E-3</v>
+        <v>1.29405174169892E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>1.1647432201563159E-3</v>
+        <v>1.29405174169892E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2078460606705173E-3</v>
+        <v>1.29405174169892E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
@@ -22696,51 +22715,51 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:AI3" si="0">B$4</f>
-        <v>2.3042283446730118E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" si="0"/>
-        <v>2.4395926371969503E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>2.5749569297208889E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>2.7103212222448275E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8456855147687661E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>2.9810498072927046E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>3.1164140998166432E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>3.2517783923405818E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>3.3871426848645203E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>3.5225069773884589E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>3.6578712699123975E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>3.7932355624363361E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
@@ -22837,51 +22856,51 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!Y3</f>
-        <v>2.3042283446730118E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!Z3</f>
-        <v>2.4395926371969503E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AA3</f>
-        <v>2.5749569297208889E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AB3</f>
-        <v>2.7103212222448275E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AC3</f>
-        <v>2.8456855147687661E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AD3</f>
-        <v>2.9810498072927046E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AE3</f>
-        <v>3.1164140998166432E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AF3</f>
-        <v>3.2517783923405818E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AG3</f>
-        <v>3.3871426848645203E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AH3</f>
-        <v>3.5225069773884589E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AI3</f>
-        <v>3.6578712699123975E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AJ3</f>
-        <v>3.7932355624363361E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AK3</f>
@@ -22978,51 +22997,51 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" ref="B5:AI5" si="1">B$4</f>
-        <v>2.3042283446730118E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="1"/>
-        <v>2.4395926371969503E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>2.5749569297208889E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>2.7103212222448275E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8456855147687661E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>2.9810498072927046E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>3.1164140998166432E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="1"/>
-        <v>3.2517783923405818E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="1"/>
-        <v>3.3871426848645203E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>3.5225069773884589E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="1"/>
-        <v>3.6578712699123975E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="1"/>
-        <v>3.7932355624363361E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="1"/>
@@ -23119,51 +23138,51 @@
       </c>
       <c r="B6" s="4">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>5.0723342376815105E-4</v>
+        <v>8.9460684457119558E-4</v>
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>5.370313792145391E-4</v>
+        <v>8.9460684457119558E-4</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>5.6682933466092715E-4</v>
+        <v>8.9460684457119558E-4</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>5.966272901073152E-4</v>
+        <v>8.9460684457119558E-4</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>6.2642524555370335E-4</v>
+        <v>8.9460684457119558E-4</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>6.562232010000914E-4</v>
+        <v>8.9460684457119558E-4</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>6.8602115644647934E-4</v>
+        <v>8.9460684457119558E-4</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>7.1581911189286739E-4</v>
+        <v>8.9460684457119558E-4</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>7.4561706733925544E-4</v>
+        <v>8.9460684457119558E-4</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>7.754150227856436E-4</v>
+        <v>8.9460684457119558E-4</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>8.0521297823203165E-4</v>
+        <v>8.9460684457119558E-4</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>8.350109336784197E-4</v>
+        <v>8.9460684457119558E-4</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
@@ -23260,51 +23279,51 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>1.7857769671215842E-4</v>
+        <v>3.1495722143002643E-4</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>1.8906842938276367E-4</v>
+        <v>3.1495722143002643E-4</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>1.9955916205336888E-4</v>
+        <v>3.1495722143002643E-4</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>2.1004989472397413E-4</v>
+        <v>3.1495722143002643E-4</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>2.2054062739457938E-4</v>
+        <v>3.1495722143002643E-4</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>2.3103136006518462E-4</v>
+        <v>3.1495722143002643E-4</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>2.4152209273578987E-4</v>
+        <v>3.1495722143002643E-4</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>2.5201282540639511E-4</v>
+        <v>3.1495722143002643E-4</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>2.6250355807700033E-4</v>
+        <v>3.1495722143002643E-4</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>2.7299429074760555E-4</v>
+        <v>3.1495722143002643E-4</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>2.8348502341821083E-4</v>
+        <v>3.1495722143002643E-4</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>2.9397575608881604E-4</v>
+        <v>3.1495722143002643E-4</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
@@ -23401,51 +23420,51 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>5.7605708616825292E-4</v>
+        <v>1.015991036871053E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>6.0989815929923764E-4</v>
+        <v>1.015991036871053E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>6.4373923243022226E-4</v>
+        <v>1.015991036871053E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>6.7758030556120687E-4</v>
+        <v>1.015991036871053E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>7.1142137869219149E-4</v>
+        <v>1.015991036871053E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>7.452624518231761E-4</v>
+        <v>1.015991036871053E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>7.7910352495416083E-4</v>
+        <v>1.015991036871053E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>8.1294459808514544E-4</v>
+        <v>1.015991036871053E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>8.4678567121613006E-4</v>
+        <v>1.015991036871053E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>8.8062674434711478E-4</v>
+        <v>1.015991036871053E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>9.144678174780994E-4</v>
+        <v>1.015991036871053E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>9.4830889060908401E-4</v>
+        <v>1.015991036871053E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
@@ -23542,7 +23561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23552,12 +23571,12 @@
       <selection activeCell="B5" sqref="B5:AI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="30">
       <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
@@ -23670,87 +23689,87 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6499172596317175E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6499172596317175E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6499172596317175E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6499172596317175E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6499172596317175E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6499172596317175E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6499172596317175E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8388943802398841E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0278715008480511E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>3.2168486214562177E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>3.4058257420643838E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5948028626725508E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>3.7837799832807174E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>3.972757103888884E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>4.1617342244970514E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>4.350711345105218E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>4.5396884657133846E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>4.7286655863215512E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>4.9176427069297177E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>5.1066198275378843E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>5.2955969481460509E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
@@ -23811,87 +23830,87 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:AI4" si="0">B$5</f>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" si="0"/>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>8.8343450560586273E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>9.4224222676567149E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>1.0010499479254802E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>1.0598576690852889E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>1.1186653902450978E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>1.1774731114049064E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2362808325647153E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2950885537245241E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>1.353896274884333E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>1.4127039960441417E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>1.4715117172039503E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>1.5303194383637592E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>1.5891271595235678E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>1.6479348806833767E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
@@ -23952,87 +23971,87 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="0"/>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>8.8343450560586273E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
-        <v>9.4224222676567149E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0010499479254802E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0598576690852889E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>1.1186653902450978E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>1.1774731114049064E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>1.2362808325647153E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="0"/>
-        <v>1.2950885537245241E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="0"/>
-        <v>1.353896274884333E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="0"/>
-        <v>1.4127039960441417E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>1.4715117172039503E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="0"/>
-        <v>1.5303194383637592E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="0"/>
-        <v>1.5891271595235678E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="0"/>
-        <v>1.6479348806833767E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="0"/>
@@ -24093,87 +24112,87 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!P4</f>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!Q4</f>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!R4</f>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!S4</f>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!T4</f>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!U4</f>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!V4</f>
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!W4</f>
-        <v>8.8343450560586273E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!X4</f>
-        <v>9.4224222676567149E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!Y4</f>
-        <v>1.0010499479254802E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!Z4</f>
-        <v>1.0598576690852889E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!AA4</f>
-        <v>1.1186653902450978E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AB4</f>
-        <v>1.1774731114049064E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AC4</f>
-        <v>1.2362808325647153E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AD4</f>
-        <v>1.2950885537245241E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AE4</f>
-        <v>1.353896274884333E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AF4</f>
-        <v>1.4127039960441417E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AG4</f>
-        <v>1.4715117172039503E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AH4</f>
-        <v>1.5303194383637592E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AI4</f>
-        <v>1.5891271595235678E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AJ4</f>
-        <v>1.6479348806833767E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AK4</f>
@@ -24234,87 +24253,87 @@
       </c>
       <c r="B6" s="4">
         <f>B$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+B$5*(1-'Other Values'!$B$6)</f>
-        <v>1.828536545798169E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+C$5*(1-'Other Values'!$B$6)</f>
-        <v>1.828536545798169E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="D6" s="4">
         <f>D$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+D$5*(1-'Other Values'!$B$6)</f>
-        <v>1.828536545798169E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="E6" s="4">
         <f>E$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+E$5*(1-'Other Values'!$B$6)</f>
-        <v>1.828536545798169E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="F6" s="4">
         <f>F$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+F$5*(1-'Other Values'!$B$6)</f>
-        <v>1.828536545798169E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="G6" s="4">
         <f>G$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+G$5*(1-'Other Values'!$B$6)</f>
-        <v>1.828536545798169E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="H6" s="4">
         <f>H$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+H$5*(1-'Other Values'!$B$6)</f>
-        <v>1.828536545798169E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="I6" s="4">
         <f>I$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+I$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9589374366545745E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="J6" s="4">
         <f>J$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+J$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0893383275109802E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="K6" s="4">
         <f>K$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+K$5*(1-'Other Values'!$B$6)</f>
-        <v>2.2197392183673859E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="L6" s="4">
         <f>L$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+L$5*(1-'Other Values'!$B$6)</f>
-        <v>2.3501401092237912E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="M6" s="4">
         <f>M$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+M$5*(1-'Other Values'!$B$6)</f>
-        <v>2.4805410000801969E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
-        <v>2.6109418909366026E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
-        <v>2.7413427817930083E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
-        <v>2.871743672649414E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
-        <v>3.0021445635058197E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
-        <v>3.1325454543622254E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
-        <v>3.2629463452186311E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
-        <v>3.3933472360750364E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
-        <v>3.5237481269314421E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
-        <v>3.6541490177878478E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
@@ -24375,87 +24394,87 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>6.3908575794569184E-4</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>6.3908575794569184E-4</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>6.3908575794569184E-4</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>6.3908575794569184E-4</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>6.3908575794569184E-4</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>6.3908575794569184E-4</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>6.3908575794569184E-4</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>6.8466174184454362E-4</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>7.302377257433954E-4</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>7.7581370964224718E-4</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>8.2138969354109896E-4</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>8.6696567743995074E-4</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>9.1254166133880252E-4</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>9.5811764523765441E-4</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>1.0036936291365063E-3</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>1.0492696130353582E-3</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>1.0948455969342099E-3</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>1.1404215808330615E-3</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>1.1859975647319134E-3</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>1.2315735486307651E-3</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>1.277149532529617E-3</v>
+        <v>1.3683015003273203E-3</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
@@ -24516,87 +24535,87 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.0615669611151349E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.0615669611151349E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.0615669611151349E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.0615669611151349E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.0615669611151349E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.0615669611151349E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>2.0615669611151349E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>2.2085862640146567E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>2.3556055669141786E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>2.5026248698137004E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>2.6496441727132222E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.7966634756127445E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.9436827785122659E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>3.0907020814117882E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>3.2377213843113105E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>3.3847406872108323E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>3.5317599901103541E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>3.678779293009876E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>3.8257985959093978E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>3.9728178988089197E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>4.1198372017084419E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
@@ -24657,7 +24676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -24667,12 +24686,12 @@
       <selection activeCell="B5" sqref="B5:AI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="30">
       <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
@@ -24785,115 +24804,115 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1932914106217042E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1932914106217042E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1932914106217042E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1932914106217042E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1932914106217042E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1932914106217042E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1932914106217042E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1932914106217042E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1932914106217042E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1932914106217042E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1932914106217042E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1932914106217042E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>2.3497045567029214E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5061177027841382E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6625308488653549E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8189439949465717E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9753571410277889E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>3.1317702871090057E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>3.2881834331902225E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>3.4445965792714393E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>3.6010097253526565E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>3.7574228714338733E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>3.9138360175150905E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>4.0702491635963072E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>4.226662309677524E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>4.3830754557587408E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>4.6959017479211735E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>4.7428607654003852E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
@@ -24926,115 +24945,115 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:AI4" si="0">B$5</f>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>7.3120370303994325E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>7.7987785285697211E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>8.2855200267400097E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>8.7722615249102983E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>9.2590030230805869E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>9.7457445212508756E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>1.0232486019421164E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>1.0719227517591453E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>1.1205969015761741E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>1.169271051393203E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2179452012102319E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2666193510272607E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3152935008442896E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3639676506613184E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>1.461315950295376E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>1.4759291097983297E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
@@ -25067,115 +25086,115 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>7.3120370303994325E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>7.7987785285697211E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="0"/>
-        <v>8.2855200267400097E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="0"/>
-        <v>8.7722615249102983E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="0"/>
-        <v>9.2590030230805869E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>9.7457445212508756E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0232486019421164E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0719227517591453E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="0"/>
-        <v>1.1205969015761741E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="0"/>
-        <v>1.169271051393203E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="0"/>
-        <v>1.2179452012102319E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="0"/>
-        <v>1.2666193510272607E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="0"/>
-        <v>1.3152935008442896E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="0"/>
-        <v>1.3639676506613184E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="0"/>
-        <v>1.461315950295376E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="0"/>
-        <v>1.4759291097983297E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="0"/>
@@ -25208,115 +25227,115 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!K5</f>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!L5</f>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!M5</f>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!N5</f>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!O5</f>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!P5</f>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!Q5</f>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!R5</f>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!S5</f>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!T5</f>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!U5</f>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!V5</f>
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!W5</f>
-        <v>7.3120370303994325E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!X5</f>
-        <v>7.7987785285697211E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!Y5</f>
-        <v>8.2855200267400097E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!Z5</f>
-        <v>8.7722615249102983E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AA5</f>
-        <v>9.2590030230805869E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AB5</f>
-        <v>9.7457445212508756E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AC5</f>
-        <v>1.0232486019421164E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AD5</f>
-        <v>1.0719227517591453E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AE5</f>
-        <v>1.1205969015761741E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AF5</f>
-        <v>1.169271051393203E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AG5</f>
-        <v>1.2179452012102319E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AH5</f>
-        <v>1.2666193510272607E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AI5</f>
-        <v>1.3152935008442896E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AJ5</f>
-        <v>1.3639676506613184E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AK5</f>
-        <v>1.461315950295376E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AL5</f>
-        <v>1.4759291097983297E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AM5</f>
@@ -25349,115 +25368,115 @@
       </c>
       <c r="B6" s="4">
         <f>B$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+B$5*(1-'Other Values'!$B$6)</f>
-        <v>1.5134485747922487E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+C$5*(1-'Other Values'!$B$6)</f>
-        <v>1.5134485747922487E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="D6" s="4">
         <f>D$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+D$5*(1-'Other Values'!$B$6)</f>
-        <v>1.5134485747922487E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="E6" s="4">
         <f>E$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+E$5*(1-'Other Values'!$B$6)</f>
-        <v>1.5134485747922487E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="F6" s="4">
         <f>F$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+F$5*(1-'Other Values'!$B$6)</f>
-        <v>1.5134485747922487E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="G6" s="4">
         <f>G$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+G$5*(1-'Other Values'!$B$6)</f>
-        <v>1.5134485747922487E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="H6" s="4">
         <f>H$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+H$5*(1-'Other Values'!$B$6)</f>
-        <v>1.5134485747922487E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="I6" s="4">
         <f>I$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+I$5*(1-'Other Values'!$B$6)</f>
-        <v>1.5134485747922487E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="J6" s="4">
         <f>J$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+J$5*(1-'Other Values'!$B$6)</f>
-        <v>1.5134485747922487E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="K6" s="4">
         <f>K$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+K$5*(1-'Other Values'!$B$6)</f>
-        <v>1.5134485747922487E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="L6" s="4">
         <f>L$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+L$5*(1-'Other Values'!$B$6)</f>
-        <v>1.5134485747922487E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="M6" s="4">
         <f>M$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+M$5*(1-'Other Values'!$B$6)</f>
-        <v>1.5134485747922487E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
-        <v>1.6213791725545814E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7293097703169134E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8372403680792459E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9451709658415779E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0531015636039104E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
-        <v>2.1610321613662426E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
-        <v>2.2689627591285749E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
-        <v>2.3768933568909072E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
-        <v>2.4848239546532394E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
-        <v>2.5927545524155717E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
-        <v>2.7006851501779044E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
-        <v>2.8086157479402362E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
-        <v>2.9165463457025689E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
-        <v>3.0244769434649007E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
-        <v>3.2403381389895648E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
-        <v>3.2727415203794605E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
@@ -25490,115 +25509,115 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>5.2896040374775862E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>5.2896040374775862E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>5.2896040374775862E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>5.2896040374775862E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>5.2896040374775862E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>5.2896040374775862E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>5.2896040374775862E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>5.2896040374775862E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>5.2896040374775862E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>5.2896040374775862E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>5.2896040374775862E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>5.2896040374775862E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>5.6668286985595603E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>6.0440533596415344E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>6.4212780207235074E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>6.7985026818054815E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>7.1757273428874546E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>7.5529520039694287E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>7.9301766650514028E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>8.3074013261333758E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>8.6846259872153499E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>9.061850648297324E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>9.439075309379297E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>9.8162999704612701E-4</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>1.0193524631543244E-3</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>1.0570749292625218E-3</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>1.1325198614789164E-3</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>1.1438450600937055E-3</v>
+        <v>1.1552835106946426E-3</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
@@ -25631,115 +25650,115 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>1.706323883057286E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>1.706323883057286E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>1.706323883057286E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>1.706323883057286E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>1.706323883057286E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>1.706323883057286E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>1.706323883057286E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>1.706323883057286E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>1.706323883057286E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>1.706323883057286E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>1.706323883057286E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>1.706323883057286E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>1.8280092575998581E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>1.9496946321424303E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.0713800066850026E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.1930653812275748E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.314750755770147E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.4364361303127191E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.5581215048552913E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.6798068793978634E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.8014922539404356E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.9231776284830077E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>3.0448630030255799E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>3.166548377568152E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>3.2882337521107242E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>3.4099191266532963E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>3.6532898757384398E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>3.689822774495824E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Brazil\Model\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1C8984-ABDE-4E11-B724-795BAF99F5A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB80413-346E-4187-BFD8-1E7604DD41FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45960" yWindow="1005" windowWidth="20820" windowHeight="13860" tabRatio="895" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39075" yWindow="615" windowWidth="18000" windowHeight="13695" tabRatio="895" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1270,7 +1270,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1324,13 +1324,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="41" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="155">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1765,145 +1766,145 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="0.00E+00">
-                  <c:v>3.8531369427586355E-4</c:v>
+                  <c:v>3.8531369427586366E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4748,178 +4749,178 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>5.3600722376299557E-4</c:v>
+                  <c:v>6.0343668020558983E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>5.3614827829556472E-4</c:v>
+                  <c:v>6.0359547933195961E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>5.3628936994774769E-4</c:v>
+                  <c:v>6.0375432024757322E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>5.364304987293128E-4</c:v>
+                  <c:v>6.0391320296342783E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>5.3657166465003099E-4</c:v>
+                  <c:v>6.0407212749052344E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>5.3671286771967569E-4</c:v>
+                  <c:v>6.0423109383986296E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>5.3685410794802294E-4</c:v>
+                  <c:v>6.0439010202245234E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>5.3699538534485126E-4</c:v>
+                  <c:v>6.0454915204930025E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>5.3713669991994201E-4</c:v>
+                  <c:v>6.0470824393141838E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>5.372780516830788E-4</c:v>
+                  <c:v>6.0486737767982137E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>5.3741944064404797E-4</c:v>
+                  <c:v>6.0502655330552655E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>5.3756086681263845E-4</c:v>
+                  <c:v>6.0518577081955429E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>5.3770233019864169E-4</c:v>
+                  <c:v>6.0534503023292779E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>5.378438308118518E-4</c:v>
+                  <c:v>6.0550433155667327E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>5.3798536866206544E-4</c:v>
+                  <c:v>6.0566367480181967E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>5.3812694375908173E-4</c:v>
+                  <c:v>6.0582305997939907E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>5.382685561127025E-4</c:v>
+                  <c:v>6.0598248710044627E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>5.3841020573273208E-4</c:v>
+                  <c:v>6.0614195617599898E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>5.3855189262897753E-4</c:v>
+                  <c:v>6.0630146721709786E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>5.3869361681124826E-4</c:v>
+                  <c:v>6.0646102023478648E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>5.3883537828935642E-4</c:v>
+                  <c:v>6.0662061524011134E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>5.3897717707311675E-4</c:v>
+                  <c:v>6.0678025224412187E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>5.3911901317234647E-4</c:v>
+                  <c:v>6.0693993125787021E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>5.3926088659686543E-4</c:v>
+                  <c:v>6.0709965229241165E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>5.3940279735649617E-4</c:v>
+                  <c:v>6.0725941535880428E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>5.3954474546106363E-4</c:v>
+                  <c:v>6.0741922046810915E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>5.3968673092039544E-4</c:v>
+                  <c:v>6.075790676313902E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>5.3982875374432185E-4</c:v>
+                  <c:v>6.0773895685971421E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>5.399708139426756E-4</c:v>
+                  <c:v>6.0789888816415089E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>5.4011291152529202E-4</c:v>
+                  <c:v>6.0805886155577298E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>5.4025504650200918E-4</c:v>
+                  <c:v>6.0821887704565604E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>5.4039721888266749E-4</c:v>
+                  <c:v>6.0837893464487855E-4</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00E+00">
-                  <c:v>5.4053942867711023E-4</c:v>
+                  <c:v>6.0853903436452193E-4</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="0.00E+00">
-                  <c:v>5.4068167589518313E-4</c:v>
+                  <c:v>6.086991762156704E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5253,178 +5254,178 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="0.00E+00">
-                  <c:v>4.2033914976138416E-4</c:v>
+                  <c:v>3.7161983445238052E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8265,139 +8266,139 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7228988958097444E-3</v>
+        <v>1.9396387659077732E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7233522902560098E-3</v>
+        <v>1.9401491971619592E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7238058040166032E-3</v>
+        <v>1.9406597627401598E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>1.724259437122923E-3</v>
+        <v>1.9411704626777228E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7247131896063763E-3</v>
+        <v>1.9416812970100062E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7251670614983779E-3</v>
+        <v>1.9421922657723771E-3</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7256210528303509E-3</v>
+        <v>1.9427033690002115E-3</v>
       </c>
       <c r="AH2" s="4">
         <f>AH$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7260751636337273E-3</v>
+        <v>1.9432146067288954E-3</v>
       </c>
       <c r="AI2" s="4">
         <f>AI$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7265293939399465E-3</v>
+        <v>1.943725978993824E-3</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -8620,139 +8621,139 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!O6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!P6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!Q6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!R6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!S6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!T6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!U6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!V6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!W6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!X6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!Y6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!Z6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AA6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AB6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AC6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AD6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AE6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AF6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AG6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AH6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AI6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AJ6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AK6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AL6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AM6</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AN6</f>
-        <v>5.3614827829556472E-4</v>
+        <v>6.0359547933195961E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AO6</f>
-        <v>5.3628936994774769E-4</v>
+        <v>6.0375432024757322E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AP6</f>
-        <v>5.364304987293128E-4</v>
+        <v>6.0391320296342783E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AQ6</f>
-        <v>5.3657166465003099E-4</v>
+        <v>6.0407212749052344E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AR6</f>
-        <v>5.3671286771967569E-4</v>
+        <v>6.0423109383986296E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AS6</f>
-        <v>5.3685410794802294E-4</v>
+        <v>6.0439010202245234E-4</v>
       </c>
       <c r="AG5" s="4">
         <f>Extrapolations!AT6</f>
-        <v>5.3699538534485126E-4</v>
+        <v>6.0454915204930025E-4</v>
       </c>
       <c r="AH5" s="4">
         <f>Extrapolations!AU6</f>
-        <v>5.3713669991994201E-4</v>
+        <v>6.0470824393141838E-4</v>
       </c>
       <c r="AI5" s="4">
         <f>Extrapolations!AV6</f>
-        <v>5.372780516830788E-4</v>
+        <v>6.0486737767982137E-4</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -8975,139 +8976,139 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.3403706957389118E-3</v>
+        <v>1.5089886983298991E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.3407234248693691E-3</v>
+        <v>1.5093858006189329E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.3410762468232819E-3</v>
+        <v>1.5097830074085696E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.3414291616250774E-3</v>
+        <v>1.5101803187263087E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.3417821692991892E-3</v>
+        <v>1.5105777345996575E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>1.3421352698700572E-3</v>
+        <v>1.5109752550561309E-3</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$5*Calculations!$B$27</f>
-        <v>1.3424884633621282E-3</v>
+        <v>1.5113728801232507E-3</v>
       </c>
       <c r="AH8" s="4">
         <f>AH$5*Calculations!$B$27</f>
-        <v>1.342841749799855E-3</v>
+        <v>1.5117706098285459E-3</v>
       </c>
       <c r="AI8" s="4">
         <f>AI$5*Calculations!$B$27</f>
-        <v>1.343195129207697E-3</v>
+        <v>1.5121684441995534E-3</v>
       </c>
     </row>
   </sheetData>
@@ -9244,139 +9245,139 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AH2" s="4">
         <f>AH$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AI2" s="4">
         <f>AI$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -9599,139 +9600,139 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!O7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!P7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!Q7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!R7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!S7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!T7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!U7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!V7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!W7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!X7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!Y7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!Z7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AA7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AB7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AC7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AD7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AE7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AF7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AG7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AH7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AI7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AJ7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AK7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AL7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AM7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AN7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AO7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AP7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AQ7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AR7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AS7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AG5" s="4">
         <f>Extrapolations!AT7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AH5" s="4">
         <f>Extrapolations!AU7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AI5" s="4">
         <f>Extrapolations!AV7</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -9954,139 +9955,139 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AH8" s="4">
         <f>AH$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AI8" s="4">
         <f>AI$5*Calculations!$B$27</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
     </row>
   </sheetData>
@@ -15869,7 +15870,7 @@
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A7" sqref="A7:AM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15955,7 +15956,7 @@
       <c r="E7">
         <v>2016</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="41">
         <v>2017</v>
       </c>
       <c r="G7">
@@ -16069,112 +16070,112 @@
         <v>4</v>
       </c>
       <c r="D8" s="35">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="F8" s="36">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="F8" s="42">
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AH8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AI8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AJ8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AK8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AL8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AM8" s="4">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -16188,100 +16189,100 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="42">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="R9" s="36">
+      <c r="R9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="S9" s="36">
+      <c r="S9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="T9" s="36">
+      <c r="T9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="U9" s="36">
+      <c r="U9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="V9" s="36">
+      <c r="V9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="W9" s="36">
+      <c r="W9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="X9" s="36">
+      <c r="X9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="Y9" s="36">
+      <c r="Y9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="Z9" s="36">
+      <c r="Z9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AA9" s="36">
+      <c r="AA9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AB9" s="36">
+      <c r="AB9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AC9" s="36">
+      <c r="AC9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AD9" s="36">
+      <c r="AD9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AE9" s="36">
+      <c r="AE9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AF9" s="36">
+      <c r="AF9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AG9" s="36">
+      <c r="AG9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AH9" s="36">
+      <c r="AH9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AI9" s="36">
+      <c r="AI9" s="35">
         <v>1.625585658993685E-4</v>
       </c>
       <c r="AJ9" s="4">
@@ -16308,13 +16309,13 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="35">
         <v>1.7655503230029938E-3</v>
       </c>
       <c r="E10" s="4">
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="42">
         <v>1.7655503230029938E-3</v>
       </c>
       <c r="G10" s="4">
@@ -16428,13 +16429,13 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="35">
         <v>4.6267294723733541E-4</v>
       </c>
       <c r="E11" s="4">
         <v>4.6729967670970879E-4</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="42">
         <v>4.7197267347680587E-4</v>
       </c>
       <c r="G11" s="4">
@@ -16549,112 +16550,112 @@
         <v>5</v>
       </c>
       <c r="D12" s="35">
-        <v>5.3572522601763833E-4</v>
+        <v>6.0311920727660728E-4</v>
       </c>
       <c r="E12" s="4">
-        <v>5.3586620634027448E-4</v>
-      </c>
-      <c r="F12" s="4">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0327792285746952E-4</v>
+      </c>
+      <c r="F12" s="42">
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="G12" s="4">
-        <v>5.3614827829556472E-4</v>
+        <v>6.0359547933195961E-4</v>
       </c>
       <c r="H12" s="4">
-        <v>5.3628936994774769E-4</v>
+        <v>6.0375432024757322E-4</v>
       </c>
       <c r="I12" s="4">
-        <v>5.364304987293128E-4</v>
+        <v>6.0391320296342783E-4</v>
       </c>
       <c r="J12" s="4">
-        <v>5.3657166465003099E-4</v>
+        <v>6.0407212749052344E-4</v>
       </c>
       <c r="K12" s="4">
-        <v>5.3671286771967569E-4</v>
+        <v>6.0423109383986296E-4</v>
       </c>
       <c r="L12" s="4">
-        <v>5.3685410794802294E-4</v>
+        <v>6.0439010202245234E-4</v>
       </c>
       <c r="M12" s="4">
-        <v>5.3699538534485126E-4</v>
+        <v>6.0454915204930025E-4</v>
       </c>
       <c r="N12" s="4">
-        <v>5.3713669991994201E-4</v>
+        <v>6.0470824393141838E-4</v>
       </c>
       <c r="O12" s="4">
-        <v>5.372780516830788E-4</v>
+        <v>6.0486737767982137E-4</v>
       </c>
       <c r="P12" s="4">
-        <v>5.3741944064404797E-4</v>
+        <v>6.0502655330552655E-4</v>
       </c>
       <c r="Q12" s="4">
-        <v>5.3756086681263845E-4</v>
+        <v>6.0518577081955429E-4</v>
       </c>
       <c r="R12" s="4">
-        <v>5.3770233019864169E-4</v>
+        <v>6.0534503023292779E-4</v>
       </c>
       <c r="S12" s="4">
-        <v>5.378438308118518E-4</v>
+        <v>6.0550433155667327E-4</v>
       </c>
       <c r="T12" s="4">
-        <v>5.3798536866206544E-4</v>
+        <v>6.0566367480181967E-4</v>
       </c>
       <c r="U12" s="4">
-        <v>5.3812694375908173E-4</v>
+        <v>6.0582305997939907E-4</v>
       </c>
       <c r="V12" s="4">
-        <v>5.382685561127025E-4</v>
+        <v>6.0598248710044627E-4</v>
       </c>
       <c r="W12" s="4">
-        <v>5.3841020573273208E-4</v>
+        <v>6.0614195617599898E-4</v>
       </c>
       <c r="X12" s="4">
-        <v>5.3855189262897753E-4</v>
+        <v>6.0630146721709786E-4</v>
       </c>
       <c r="Y12" s="4">
-        <v>5.3869361681124826E-4</v>
+        <v>6.0646102023478648E-4</v>
       </c>
       <c r="Z12" s="4">
-        <v>5.3883537828935642E-4</v>
+        <v>6.0662061524011134E-4</v>
       </c>
       <c r="AA12" s="4">
-        <v>5.3897717707311675E-4</v>
+        <v>6.0678025224412187E-4</v>
       </c>
       <c r="AB12" s="4">
-        <v>5.3911901317234647E-4</v>
+        <v>6.0693993125787021E-4</v>
       </c>
       <c r="AC12" s="4">
-        <v>5.3926088659686543E-4</v>
+        <v>6.0709965229241165E-4</v>
       </c>
       <c r="AD12" s="4">
-        <v>5.3940279735649617E-4</v>
+        <v>6.0725941535880428E-4</v>
       </c>
       <c r="AE12" s="4">
-        <v>5.3954474546106363E-4</v>
+        <v>6.0741922046810915E-4</v>
       </c>
       <c r="AF12" s="4">
-        <v>5.3968673092039544E-4</v>
+        <v>6.075790676313902E-4</v>
       </c>
       <c r="AG12" s="4">
-        <v>5.3982875374432185E-4</v>
+        <v>6.0773895685971421E-4</v>
       </c>
       <c r="AH12" s="4">
-        <v>5.399708139426756E-4</v>
+        <v>6.0789888816415089E-4</v>
       </c>
       <c r="AI12" s="4">
-        <v>5.4011291152529202E-4</v>
+        <v>6.0805886155577298E-4</v>
       </c>
       <c r="AJ12" s="4">
-        <v>5.4025504650200918E-4</v>
+        <v>6.0821887704565604E-4</v>
       </c>
       <c r="AK12" s="4">
-        <v>5.4039721888266749E-4</v>
+        <v>6.0837893464487855E-4</v>
       </c>
       <c r="AL12" s="4">
-        <v>5.4053942867711023E-4</v>
+        <v>6.0853903436452193E-4</v>
       </c>
       <c r="AM12" s="4">
-        <v>5.4068167589518313E-4</v>
+        <v>6.086991762156704E-4</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -16669,112 +16670,112 @@
         <v>5</v>
       </c>
       <c r="D13" s="35">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="E13" s="4">
-        <v>4.2033914976138416E-4</v>
-      </c>
-      <c r="F13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
+      </c>
+      <c r="F13" s="42">
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="G13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="H13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="I13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="J13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="K13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="L13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="M13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="N13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="O13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="P13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Q13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="R13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="S13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="T13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="U13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="V13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="W13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="X13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Y13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Z13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AA13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AB13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AC13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AD13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AE13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AF13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AG13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AH13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AI13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AJ13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AK13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AL13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AM13" s="4">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AN13" s="4"/>
     </row>
@@ -16794,7 +16795,7 @@
       <c r="E14" s="4">
         <v>2.8140828247168351E-3</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="42">
         <v>2.8156039505680334E-3</v>
       </c>
       <c r="G14" s="4">
@@ -16908,13 +16909,13 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="35">
         <v>4.3946425729238063E-3</v>
       </c>
       <c r="E15" s="4">
         <v>4.3506961471945684E-3</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="42">
         <v>4.3071891857226225E-3</v>
       </c>
       <c r="G15" s="4">
@@ -17028,13 +17029,13 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="35">
         <v>2.3178432205516356E-4</v>
       </c>
       <c r="E16" s="4">
         <v>2.3178432205516356E-4</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="42">
         <v>2.3178432205516356E-4</v>
       </c>
       <c r="G16" s="4">
@@ -17148,13 +17149,13 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="35">
         <v>2.0246293667484216E-3</v>
       </c>
       <c r="E17" s="4">
         <v>2.0246293667484216E-3</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="42">
         <v>2.0246293667484216E-3</v>
       </c>
       <c r="G17" s="4">
@@ -17268,13 +17269,13 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="35">
         <v>5.9683256416215671E-4</v>
       </c>
       <c r="E18" s="4">
         <v>5.9683256416215671E-4</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="42">
         <v>5.9683256416215671E-4</v>
       </c>
       <c r="G18" s="4">
@@ -17388,13 +17389,13 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="35">
         <v>0</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="42">
         <v>0</v>
       </c>
       <c r="G19" s="4">
@@ -17692,17 +17693,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BT14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="BI2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C13" sqref="C13"/>
       <selection pane="topRight" activeCell="C13" sqref="C13"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
-      <selection pane="bottomRight" activeCell="S46" sqref="S46"/>
+      <selection pane="bottomRight" activeCell="BN15" sqref="BN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="16" max="16" width="9.86328125" customWidth="1"/>
+    <col min="17" max="17" width="10.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -17814,7 +17817,7 @@
       <c r="AL1">
         <v>2016</v>
       </c>
-      <c r="AM1" s="39">
+      <c r="AM1" s="38">
         <v>2017</v>
       </c>
       <c r="AN1">
@@ -17946,194 +17949,194 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
-      <c r="Y2" s="37"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="14">
         <f t="shared" ref="Z2:AK2" si="0">AA2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AA2" s="14">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AB2" s="14">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AC2" s="14">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AD2" s="14">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AE2" s="14">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AF2" s="14">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AG2" s="14">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AH2" s="14">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AI2" s="14">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AJ2" s="14">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AK2" s="14">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AL2" s="14">
         <f>AM2</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AM2" s="40">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AM2" s="39">
         <f>BNVFE!F8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AN2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AN2" s="37">
         <f>BNVFE!G8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AO2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AO2" s="37">
         <f>BNVFE!H8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AP2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AP2" s="37">
         <f>BNVFE!I8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AQ2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AQ2" s="37">
         <f>BNVFE!J8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AR2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AR2" s="37">
         <f>BNVFE!K8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AS2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AS2" s="37">
         <f>BNVFE!L8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AT2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AT2" s="37">
         <f>BNVFE!M8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AU2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AU2" s="37">
         <f>BNVFE!N8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AV2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AV2" s="37">
         <f>BNVFE!O8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AW2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AW2" s="37">
         <f>BNVFE!P8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AX2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AX2" s="37">
         <f>BNVFE!Q8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AY2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AY2" s="37">
         <f>BNVFE!R8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AZ2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AZ2" s="37">
         <f>BNVFE!S8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BA2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BA2" s="37">
         <f>BNVFE!T8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BB2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BB2" s="37">
         <f>BNVFE!U8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BC2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BC2" s="37">
         <f>BNVFE!V8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BD2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BD2" s="37">
         <f>BNVFE!W8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BE2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BE2" s="37">
         <f>BNVFE!X8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BF2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BF2" s="37">
         <f>BNVFE!Y8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BG2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BG2" s="37">
         <f>BNVFE!Z8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BH2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BH2" s="37">
         <f>BNVFE!AA8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BI2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BI2" s="37">
         <f>BNVFE!AB8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BJ2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BJ2" s="37">
         <f>BNVFE!AC8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BK2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BK2" s="37">
         <f>BNVFE!AD8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BL2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BL2" s="37">
         <f>BNVFE!AE8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BM2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BM2" s="37">
         <f>BNVFE!AF8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BN2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BN2" s="37">
         <f>BNVFE!AG8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BO2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BO2" s="37">
         <f>BNVFE!AH8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BP2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BP2" s="37">
         <f>BNVFE!AI8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BQ2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BQ2" s="37">
         <f>BNVFE!AJ8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BR2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BR2" s="37">
         <f>BNVFE!AK8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BS2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BS2" s="37">
         <f>BNVFE!AL8</f>
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BT2" s="38">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BT2" s="37">
         <f>BNVFE!AM8</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
     </row>
     <row r="3" spans="1:72">
@@ -18164,7 +18167,7 @@
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
-      <c r="X3" s="37"/>
+      <c r="X3" s="36"/>
       <c r="Y3" s="14">
         <f t="shared" ref="Y3:Z4" si="1">Z3</f>
         <v>1.625585658993685E-4</v>
@@ -18221,139 +18224,139 @@
         <f>AM3</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AM3" s="40">
+      <c r="AM3" s="39">
         <f>BNVFE!F9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AN3" s="38">
+      <c r="AN3" s="37">
         <f>BNVFE!G9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AO3" s="38">
+      <c r="AO3" s="37">
         <f>BNVFE!H9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AP3" s="38">
+      <c r="AP3" s="37">
         <f>BNVFE!I9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AQ3" s="38">
+      <c r="AQ3" s="37">
         <f>BNVFE!J9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AR3" s="38">
+      <c r="AR3" s="37">
         <f>BNVFE!K9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AS3" s="38">
+      <c r="AS3" s="37">
         <f>BNVFE!L9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AT3" s="38">
+      <c r="AT3" s="37">
         <f>BNVFE!M9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AU3" s="38">
+      <c r="AU3" s="37">
         <f>BNVFE!N9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AV3" s="38">
+      <c r="AV3" s="37">
         <f>BNVFE!O9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AW3" s="38">
+      <c r="AW3" s="37">
         <f>BNVFE!P9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AX3" s="38">
+      <c r="AX3" s="37">
         <f>BNVFE!Q9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AY3" s="38">
+      <c r="AY3" s="37">
         <f>BNVFE!R9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AZ3" s="38">
+      <c r="AZ3" s="37">
         <f>BNVFE!S9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BA3" s="38">
+      <c r="BA3" s="37">
         <f>BNVFE!T9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BB3" s="38">
+      <c r="BB3" s="37">
         <f>BNVFE!U9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BC3" s="38">
+      <c r="BC3" s="37">
         <f>BNVFE!V9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BD3" s="38">
+      <c r="BD3" s="37">
         <f>BNVFE!W9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BE3" s="38">
+      <c r="BE3" s="37">
         <f>BNVFE!X9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BF3" s="38">
+      <c r="BF3" s="37">
         <f>BNVFE!Y9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BG3" s="38">
+      <c r="BG3" s="37">
         <f>BNVFE!Z9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BH3" s="38">
+      <c r="BH3" s="37">
         <f>BNVFE!AA9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BI3" s="38">
+      <c r="BI3" s="37">
         <f>BNVFE!AB9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BJ3" s="38">
+      <c r="BJ3" s="37">
         <f>BNVFE!AC9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BK3" s="38">
+      <c r="BK3" s="37">
         <f>BNVFE!AD9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BL3" s="38">
+      <c r="BL3" s="37">
         <f>BNVFE!AE9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BM3" s="38">
+      <c r="BM3" s="37">
         <f>BNVFE!AF9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BN3" s="38">
+      <c r="BN3" s="37">
         <f>BNVFE!AG9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BO3" s="38">
+      <c r="BO3" s="37">
         <f>BNVFE!AH9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BP3" s="38">
+      <c r="BP3" s="37">
         <f>BNVFE!AI9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BQ3" s="38">
+      <c r="BQ3" s="37">
         <f>BNVFE!AJ9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BR3" s="38">
+      <c r="BR3" s="37">
         <f>BNVFE!AK9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BS3" s="38">
+      <c r="BS3" s="37">
         <f>BNVFE!AL9</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BT3" s="38">
+      <c r="BT3" s="37">
         <f>BNVFE!AM9</f>
         <v>1.625585658993685E-4</v>
       </c>
@@ -18371,13 +18374,13 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
       <c r="P4" s="14">
         <f t="shared" ref="P4" si="13">Q4</f>
         <v>1.7655503230029938E-3</v>
@@ -18470,139 +18473,139 @@
         <f t="shared" ref="AL4" si="22">AM4</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AM4" s="40">
+      <c r="AM4" s="39">
         <f>BNVFE!F10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AN4" s="38">
+      <c r="AN4" s="37">
         <f>BNVFE!G10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AO4" s="38">
+      <c r="AO4" s="37">
         <f>BNVFE!H10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AP4" s="38">
+      <c r="AP4" s="37">
         <f>BNVFE!I10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AQ4" s="38">
+      <c r="AQ4" s="37">
         <f>BNVFE!J10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AR4" s="38">
+      <c r="AR4" s="37">
         <f>BNVFE!K10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AS4" s="38">
+      <c r="AS4" s="37">
         <f>BNVFE!L10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AT4" s="38">
+      <c r="AT4" s="37">
         <f>BNVFE!M10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AU4" s="38">
+      <c r="AU4" s="37">
         <f>BNVFE!N10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AV4" s="38">
+      <c r="AV4" s="37">
         <f>BNVFE!O10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AW4" s="38">
+      <c r="AW4" s="37">
         <f>BNVFE!P10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AX4" s="38">
+      <c r="AX4" s="37">
         <f>BNVFE!Q10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AY4" s="38">
+      <c r="AY4" s="37">
         <f>BNVFE!R10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AZ4" s="38">
+      <c r="AZ4" s="37">
         <f>BNVFE!S10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BA4" s="38">
+      <c r="BA4" s="37">
         <f>BNVFE!T10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BB4" s="38">
+      <c r="BB4" s="37">
         <f>BNVFE!U10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BC4" s="38">
+      <c r="BC4" s="37">
         <f>BNVFE!V10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BD4" s="38">
+      <c r="BD4" s="37">
         <f>BNVFE!W10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BE4" s="38">
+      <c r="BE4" s="37">
         <f>BNVFE!X10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BF4" s="38">
+      <c r="BF4" s="37">
         <f>BNVFE!Y10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BG4" s="38">
+      <c r="BG4" s="37">
         <f>BNVFE!Z10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BH4" s="38">
+      <c r="BH4" s="37">
         <f>BNVFE!AA10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BI4" s="38">
+      <c r="BI4" s="37">
         <f>BNVFE!AB10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BJ4" s="38">
+      <c r="BJ4" s="37">
         <f>BNVFE!AC10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BK4" s="38">
+      <c r="BK4" s="37">
         <f>BNVFE!AD10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BL4" s="38">
+      <c r="BL4" s="37">
         <f>BNVFE!AE10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BM4" s="38">
+      <c r="BM4" s="37">
         <f>BNVFE!AF10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BN4" s="38">
+      <c r="BN4" s="37">
         <f>BNVFE!AG10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BO4" s="38">
+      <c r="BO4" s="37">
         <f>BNVFE!AH10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BP4" s="38">
+      <c r="BP4" s="37">
         <f>BNVFE!AI10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BQ4" s="38">
+      <c r="BQ4" s="37">
         <f>BNVFE!AJ10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BR4" s="38">
+      <c r="BR4" s="37">
         <f>BNVFE!AK10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BS4" s="38">
+      <c r="BS4" s="37">
         <f>BNVFE!AL10</f>
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="BT4" s="38">
+      <c r="BT4" s="37">
         <f>BNVFE!AM10</f>
         <v>1.7655503230029938E-3</v>
       </c>
@@ -18620,8 +18623,8 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="14">
         <f t="shared" ref="K5" si="23">L5</f>
         <v>4.7197267347680587E-4</v>
@@ -18734,7 +18737,7 @@
         <f t="shared" ref="AL5:AL11" si="50">AM5</f>
         <v>4.7197267347680587E-4</v>
       </c>
-      <c r="AM5" s="41">
+      <c r="AM5" s="40">
         <f>BNVFE!F11</f>
         <v>4.7197267347680587E-4</v>
       </c>
@@ -18892,235 +18895,235 @@
       <c r="N6" s="10"/>
       <c r="O6" s="14">
         <f t="shared" si="27"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="P6" s="14">
         <f t="shared" si="28"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="Q6" s="14">
         <f t="shared" si="29"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="R6" s="14">
         <f t="shared" si="30"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" si="31"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="T6" s="14">
         <f t="shared" si="32"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" si="33"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="V6" s="14">
         <f t="shared" si="34"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="W6" s="14">
         <f t="shared" si="35"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="X6" s="14">
         <f t="shared" si="36"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="Y6" s="14">
         <f t="shared" si="37"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="Z6" s="14">
         <f t="shared" si="38"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AA6" s="14">
         <f t="shared" si="39"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AB6" s="14">
         <f t="shared" si="40"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AC6" s="14">
         <f t="shared" si="41"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AD6" s="14">
         <f t="shared" si="42"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AE6" s="14">
         <f t="shared" si="43"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AF6" s="14">
         <f t="shared" si="44"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AG6" s="14">
         <f t="shared" si="45"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AH6" s="14">
         <f t="shared" si="46"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AI6" s="14">
         <f t="shared" si="47"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AJ6" s="14">
         <f t="shared" si="48"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AK6" s="14">
         <f t="shared" si="49"/>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AL6" s="14">
         <f t="shared" si="50"/>
-        <v>5.3600722376299557E-4</v>
-      </c>
-      <c r="AM6" s="41">
+        <v>6.0343668020558983E-4</v>
+      </c>
+      <c r="AM6" s="40">
         <f>BNVFE!F12</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AN6" s="13">
         <f>BNVFE!G12</f>
-        <v>5.3614827829556472E-4</v>
+        <v>6.0359547933195961E-4</v>
       </c>
       <c r="AO6" s="13">
         <f>BNVFE!H12</f>
-        <v>5.3628936994774769E-4</v>
+        <v>6.0375432024757322E-4</v>
       </c>
       <c r="AP6" s="13">
         <f>BNVFE!I12</f>
-        <v>5.364304987293128E-4</v>
+        <v>6.0391320296342783E-4</v>
       </c>
       <c r="AQ6" s="13">
         <f>BNVFE!J12</f>
-        <v>5.3657166465003099E-4</v>
+        <v>6.0407212749052344E-4</v>
       </c>
       <c r="AR6" s="13">
         <f>BNVFE!K12</f>
-        <v>5.3671286771967569E-4</v>
+        <v>6.0423109383986296E-4</v>
       </c>
       <c r="AS6" s="13">
         <f>BNVFE!L12</f>
-        <v>5.3685410794802294E-4</v>
+        <v>6.0439010202245234E-4</v>
       </c>
       <c r="AT6" s="13">
         <f>BNVFE!M12</f>
-        <v>5.3699538534485126E-4</v>
+        <v>6.0454915204930025E-4</v>
       </c>
       <c r="AU6" s="13">
         <f>BNVFE!N12</f>
-        <v>5.3713669991994201E-4</v>
+        <v>6.0470824393141838E-4</v>
       </c>
       <c r="AV6" s="13">
         <f>BNVFE!O12</f>
-        <v>5.372780516830788E-4</v>
+        <v>6.0486737767982137E-4</v>
       </c>
       <c r="AW6" s="13">
         <f>BNVFE!P12</f>
-        <v>5.3741944064404797E-4</v>
+        <v>6.0502655330552655E-4</v>
       </c>
       <c r="AX6" s="13">
         <f>BNVFE!Q12</f>
-        <v>5.3756086681263845E-4</v>
+        <v>6.0518577081955429E-4</v>
       </c>
       <c r="AY6" s="13">
         <f>BNVFE!R12</f>
-        <v>5.3770233019864169E-4</v>
+        <v>6.0534503023292779E-4</v>
       </c>
       <c r="AZ6" s="13">
         <f>BNVFE!S12</f>
-        <v>5.378438308118518E-4</v>
+        <v>6.0550433155667327E-4</v>
       </c>
       <c r="BA6" s="13">
         <f>BNVFE!T12</f>
-        <v>5.3798536866206544E-4</v>
+        <v>6.0566367480181967E-4</v>
       </c>
       <c r="BB6" s="13">
         <f>BNVFE!U12</f>
-        <v>5.3812694375908173E-4</v>
+        <v>6.0582305997939907E-4</v>
       </c>
       <c r="BC6" s="13">
         <f>BNVFE!V12</f>
-        <v>5.382685561127025E-4</v>
+        <v>6.0598248710044627E-4</v>
       </c>
       <c r="BD6" s="13">
         <f>BNVFE!W12</f>
-        <v>5.3841020573273208E-4</v>
+        <v>6.0614195617599898E-4</v>
       </c>
       <c r="BE6" s="13">
         <f>BNVFE!X12</f>
-        <v>5.3855189262897753E-4</v>
+        <v>6.0630146721709786E-4</v>
       </c>
       <c r="BF6" s="13">
         <f>BNVFE!Y12</f>
-        <v>5.3869361681124826E-4</v>
+        <v>6.0646102023478648E-4</v>
       </c>
       <c r="BG6" s="13">
         <f>BNVFE!Z12</f>
-        <v>5.3883537828935642E-4</v>
+        <v>6.0662061524011134E-4</v>
       </c>
       <c r="BH6" s="13">
         <f>BNVFE!AA12</f>
-        <v>5.3897717707311675E-4</v>
+        <v>6.0678025224412187E-4</v>
       </c>
       <c r="BI6" s="13">
         <f>BNVFE!AB12</f>
-        <v>5.3911901317234647E-4</v>
+        <v>6.0693993125787021E-4</v>
       </c>
       <c r="BJ6" s="13">
         <f>BNVFE!AC12</f>
-        <v>5.3926088659686543E-4</v>
+        <v>6.0709965229241165E-4</v>
       </c>
       <c r="BK6" s="13">
         <f>BNVFE!AD12</f>
-        <v>5.3940279735649617E-4</v>
+        <v>6.0725941535880428E-4</v>
       </c>
       <c r="BL6" s="13">
         <f>BNVFE!AE12</f>
-        <v>5.3954474546106363E-4</v>
+        <v>6.0741922046810915E-4</v>
       </c>
       <c r="BM6" s="13">
         <f>BNVFE!AF12</f>
-        <v>5.3968673092039544E-4</v>
+        <v>6.075790676313902E-4</v>
       </c>
       <c r="BN6" s="13">
         <f>BNVFE!AG12</f>
-        <v>5.3982875374432185E-4</v>
+        <v>6.0773895685971421E-4</v>
       </c>
       <c r="BO6" s="13">
         <f>BNVFE!AH12</f>
-        <v>5.399708139426756E-4</v>
+        <v>6.0789888816415089E-4</v>
       </c>
       <c r="BP6" s="13">
         <f>BNVFE!AI12</f>
-        <v>5.4011291152529202E-4</v>
+        <v>6.0805886155577298E-4</v>
       </c>
       <c r="BQ6" s="13">
         <f>BNVFE!AJ12</f>
-        <v>5.4025504650200918E-4</v>
+        <v>6.0821887704565604E-4</v>
       </c>
       <c r="BR6" s="13">
         <f>BNVFE!AK12</f>
-        <v>5.4039721888266749E-4</v>
+        <v>6.0837893464487855E-4</v>
       </c>
       <c r="BS6" s="13">
         <f>BNVFE!AL12</f>
-        <v>5.4053942867711023E-4</v>
+        <v>6.0853903436452193E-4</v>
       </c>
       <c r="BT6" s="13">
         <f>BNVFE!AM12</f>
-        <v>5.4068167589518313E-4</v>
+        <v>6.086991762156704E-4</v>
       </c>
     </row>
     <row r="7" spans="1:72" ht="15.75" customHeight="1">
@@ -19144,235 +19147,235 @@
       <c r="N7" s="10"/>
       <c r="O7" s="14">
         <f t="shared" si="27"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="P7" s="14">
         <f t="shared" si="28"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Q7" s="14">
         <f t="shared" si="29"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="R7" s="14">
         <f t="shared" si="30"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="S7" s="14">
         <f t="shared" si="31"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="T7" s="14">
         <f t="shared" si="32"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="U7" s="14">
         <f t="shared" si="33"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="V7" s="14">
         <f t="shared" si="34"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="W7" s="14">
         <f t="shared" si="35"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="X7" s="14">
         <f t="shared" si="36"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Y7" s="14">
         <f t="shared" si="37"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Z7" s="14">
         <f t="shared" si="38"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AA7" s="14">
         <f t="shared" si="39"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AB7" s="14">
         <f t="shared" si="40"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AC7" s="14">
         <f t="shared" si="41"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AD7" s="14">
         <f t="shared" si="42"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AE7" s="14">
         <f t="shared" si="43"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AF7" s="14">
         <f t="shared" si="44"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AG7" s="14">
         <f t="shared" si="45"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AH7" s="14">
         <f t="shared" si="46"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AI7" s="14">
         <f t="shared" si="47"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AJ7" s="14">
         <f t="shared" si="48"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AK7" s="14">
         <f t="shared" si="49"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AL7" s="14">
         <f t="shared" si="50"/>
-        <v>4.2033914976138416E-4</v>
-      </c>
-      <c r="AM7" s="41">
+        <v>3.7161983445238052E-7</v>
+      </c>
+      <c r="AM7" s="40">
         <f>BNVFE!F13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AN7" s="13">
         <f>BNVFE!G13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AO7" s="13">
         <f>BNVFE!H13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AP7" s="13">
         <f>BNVFE!I13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AQ7" s="13">
         <f>BNVFE!J13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AR7" s="13">
         <f>BNVFE!K13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AS7" s="13">
         <f>BNVFE!L13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AT7" s="13">
         <f>BNVFE!M13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AU7" s="13">
         <f>BNVFE!N13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AV7" s="13">
         <f>BNVFE!O13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AW7" s="13">
         <f>BNVFE!P13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AX7" s="13">
         <f>BNVFE!Q13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AY7" s="13">
         <f>BNVFE!R13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AZ7" s="13">
         <f>BNVFE!S13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BA7" s="13">
         <f>BNVFE!T13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BB7" s="13">
         <f>BNVFE!U13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BC7" s="13">
         <f>BNVFE!V13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BD7" s="13">
         <f>BNVFE!W13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BE7" s="13">
         <f>BNVFE!X13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BF7" s="13">
         <f>BNVFE!Y13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BG7" s="13">
         <f>BNVFE!Z13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BH7" s="13">
         <f>BNVFE!AA13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BI7" s="13">
         <f>BNVFE!AB13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BJ7" s="13">
         <f>BNVFE!AC13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BK7" s="13">
         <f>BNVFE!AD13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BL7" s="13">
         <f>BNVFE!AE13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BM7" s="13">
         <f>BNVFE!AF13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BN7" s="13">
         <f>BNVFE!AG13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BO7" s="13">
         <f>BNVFE!AH13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BP7" s="13">
         <f>BNVFE!AI13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BQ7" s="13">
         <f>BNVFE!AJ13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BR7" s="13">
         <f>BNVFE!AK13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BS7" s="13">
         <f>BNVFE!AL13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BT7" s="13">
         <f>BNVFE!AM13</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
     </row>
     <row r="8" spans="1:72">
@@ -19520,7 +19523,7 @@
         <f t="shared" si="50"/>
         <v>2.8156039505680334E-3</v>
       </c>
-      <c r="AM8" s="41">
+      <c r="AM8" s="40">
         <f>BNVFE!F14</f>
         <v>2.8156039505680334E-3</v>
       </c>
@@ -19802,7 +19805,7 @@
         <f t="shared" si="50"/>
         <v>4.3071891857226225E-3</v>
       </c>
-      <c r="AM9" s="41">
+      <c r="AM9" s="40">
         <f>BNVFE!F15</f>
         <v>4.3071891857226225E-3</v>
       </c>
@@ -20081,7 +20084,7 @@
         <f t="shared" si="50"/>
         <v>2.3178432205516356E-4</v>
       </c>
-      <c r="AM10" s="41">
+      <c r="AM10" s="40">
         <f>BNVFE!F16</f>
         <v>2.3178432205516356E-4</v>
       </c>
@@ -20360,7 +20363,7 @@
         <f t="shared" si="50"/>
         <v>2.0246293667484216E-3</v>
       </c>
-      <c r="AM11" s="41">
+      <c r="AM11" s="40">
         <f>BNVFE!F17</f>
         <v>2.0246293667484216E-3</v>
       </c>
@@ -20591,7 +20594,7 @@
         <f t="shared" ref="AL12:AL13" si="61">AM12</f>
         <v>5.9683256416215671E-4</v>
       </c>
-      <c r="AM12" s="41">
+      <c r="AM12" s="40">
         <f>BNVFE!F18</f>
         <v>5.9683256416215671E-4</v>
       </c>
@@ -20828,7 +20831,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="AM13" s="41">
+      <c r="AM13" s="40">
         <f>BNVFE!F19</f>
         <v>0</v>
       </c>
@@ -21429,139 +21432,139 @@
       </c>
       <c r="B2" s="4">
         <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="AH2" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="AI2" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2269199212468285E-3</v>
+        <v>1.2269199212468287E-3</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -21570,139 +21573,139 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:AI5" si="0">B$4</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AH3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AI3" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -21711,139 +21714,139 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!Z2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AA2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AB2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AC2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AD2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AE2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AF2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AG2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AH2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AI2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AJ2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AK2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AL2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AM2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AN2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AO2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AP2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AQ2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AR2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AS2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AT2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AU2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AV2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AW2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AX2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!AY2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!AZ2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BA2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BB2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BC2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AF4" s="4">
         <f>Extrapolations!BD2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AG4" s="4">
         <f>Extrapolations!BE2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AH4" s="4">
         <f>Extrapolations!BF2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AI4" s="4">
         <f>Extrapolations!BG2</f>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -21852,139 +21855,139 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -21993,139 +21996,139 @@
       </c>
       <c r="B6" s="4">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AG6" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AG$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AH6" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AH$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AI6" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AI$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4819711910989434E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -22134,139 +22137,139 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="AG7" s="4">
         <f>AG$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="AH7" s="4">
         <f>AH$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
       <c r="AI7" s="4">
         <f>AI$4*Calculations!$B$31</f>
-        <v>2.9861811306379428E-4</v>
+        <v>2.9861811306379434E-4</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -22275,139 +22278,139 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="AH8" s="4">
         <f>AH$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
       <c r="AI8" s="4">
         <f>AI$4*Calculations!$B$27</f>
-        <v>9.6328423568965889E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -23561,8 +23564,8 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:AI5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -4748,178 +4748,178 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>6.1890223381182868E-4</c:v>
+                  <c:v>6.0313010134796052E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>6.2694796285138238E-4</c:v>
+                  <c:v>6.072320057266767E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>6.3509828636845028E-4</c:v>
+                  <c:v>6.1181381950663899E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>6.4335456409124003E-4</c:v>
+                  <c:v>6.2383232505965926E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>6.517181734244261E-4</c:v>
+                  <c:v>6.3603424104160589E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>6.6019050967894353E-4</c:v>
+                  <c:v>6.4894526301838707E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>6.6877298630476972E-4</c:v>
+                  <c:v>6.6244996523030493E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>6.7746703512673167E-4</c:v>
+                  <c:v>6.7656034063432705E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>6.8627410658337912E-4</c:v>
+                  <c:v>6.9128948265566868E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>6.9519566996896303E-4</c:v>
+                  <c:v>7.0665156633416737E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>7.0423321367855951E-4</c:v>
+                  <c:v>7.2266183528083645E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>7.1338824545638072E-4</c:v>
+                  <c:v>7.3933659385631736E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>7.2266229264731361E-4</c:v>
+                  <c:v>7.5669320407387175E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>7.3205690245172861E-4</c:v>
+                  <c:v>7.7475008680641833E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>7.4157364218360104E-4</c:v>
+                  <c:v>7.9863335786483529E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>7.5121409953198773E-4</c:v>
+                  <c:v>8.237234232157186E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>7.6097988282590348E-4</c:v>
+                  <c:v>8.5007053965037362E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>7.7087262130264012E-4</c:v>
+                  <c:v>8.7772798200527345E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>7.8089396537957441E-4</c:v>
+                  <c:v>9.0675215827171586E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>7.9104558692950878E-4</c:v>
+                  <c:v>9.3720273489263269E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>8.0132917955959228E-4</c:v>
+                  <c:v>9.6914277233677872E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>8.1174645889386693E-4</c:v>
+                  <c:v>1.0026388711041254E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>8.2229916285948715E-4</c:v>
+                  <c:v>1.0377613283751872E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>8.3298905197666041E-4</c:v>
+                  <c:v>1.074584305572199E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>8.4381790965235687E-4</c:v>
+                  <c:v>1.1137282028841316E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>8.5478754247783747E-4</c:v>
+                  <c:v>1.1547726751853448E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>8.6589978053004928E-4</c:v>
+                  <c:v>1.197807450156568E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>8.7715647767693981E-4</c:v>
+                  <c:v>1.2429270853403414E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>8.8855951188673995E-4</c:v>
+                  <c:v>1.2902312080237291E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.0011078554126753E-4</c:v>
+                  <c:v>1.3398247693971758E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.1181222575330387E-4</c:v>
+                  <c:v>1.3918183136469805E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.2366578468809678E-4</c:v>
+                  <c:v>1.4463282626894839E-3</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00E+00">
-                  <c:v>9.356734398890419E-4</c:v>
+                  <c:v>1.5034772173068065E-3</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="0.00E+00">
-                  <c:v>9.4783719460759933E-4</c:v>
+                  <c:v>1.5633942754972108E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8231,139 +8231,139 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>1.9888266332560279E-3</v>
+        <v>1.9381432855579805E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>2.014681379488356E-3</v>
+        <v>1.9513246512564289E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>2.0408722374217043E-3</v>
+        <v>1.9660481936454826E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>2.067403576508186E-3</v>
+        <v>2.004669356455907E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>2.0942798230027923E-3</v>
+        <v>2.043879904028476E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1215054607018283E-3</v>
+        <v>2.0853691457328183E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1490850316909517E-3</v>
+        <v>2.1287661638172933E-3</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$5/(1-'Other Values'!$B$3)</f>
-        <v>2.1770231371029342E-3</v>
+        <v>2.1741094973449799E-3</v>
       </c>
       <c r="AH2" s="4">
         <f>AH$5/(1-'Other Values'!$B$3)</f>
-        <v>2.2053244378852721E-3</v>
+        <v>2.2214412217057633E-3</v>
       </c>
       <c r="AI2" s="4">
         <f>AI$5/(1-'Other Values'!$B$3)</f>
-        <v>2.2339936555777805E-3</v>
+        <v>2.2708068880306891E-3</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -8586,139 +8586,139 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!O6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!P6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!Q6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!R6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!S6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!T6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!U6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!V6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!W6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!X6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!Y6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!Z6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AA6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AB6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AC6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AD6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AE6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AF6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AG6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AH6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AI6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AJ6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AK6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AL6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AM6</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AN6</f>
-        <v>6.2694796285138238E-4</v>
+        <v>6.072320057266767E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AO6</f>
-        <v>6.3509828636845028E-4</v>
+        <v>6.1181381950663899E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AP6</f>
-        <v>6.4335456409124003E-4</v>
+        <v>6.2383232505965926E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AQ6</f>
-        <v>6.517181734244261E-4</v>
+        <v>6.3603424104160589E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AR6</f>
-        <v>6.6019050967894353E-4</v>
+        <v>6.4894526301838707E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AS6</f>
-        <v>6.6877298630476972E-4</v>
+        <v>6.6244996523030493E-4</v>
       </c>
       <c r="AG5" s="4">
         <f>Extrapolations!AT6</f>
-        <v>6.7746703512673167E-4</v>
+        <v>6.7656034063432705E-4</v>
       </c>
       <c r="AH5" s="4">
         <f>Extrapolations!AU6</f>
-        <v>6.8627410658337912E-4</v>
+        <v>6.9128948265566868E-4</v>
       </c>
       <c r="AI5" s="4">
         <f>Extrapolations!AV6</f>
-        <v>6.9519566996896303E-4</v>
+        <v>7.0665156633416737E-4</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -8941,139 +8941,139 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>1.5472555845295716E-3</v>
+        <v>1.5078252533699014E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.567369907128456E-3</v>
+        <v>1.5180800143166917E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.5877457159211258E-3</v>
+        <v>1.5295345487665974E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.6083864102281E-3</v>
+        <v>1.5595808126491481E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.6292954335610653E-3</v>
+        <v>1.5900856026040146E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.6504762741973589E-3</v>
+        <v>1.6223631575459677E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>1.6719324657619244E-3</v>
+        <v>1.6561249130757623E-3</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$5*Calculations!$B$27</f>
-        <v>1.6936675878168291E-3</v>
+        <v>1.6914008515858175E-3</v>
       </c>
       <c r="AH8" s="4">
         <f>AH$5*Calculations!$B$27</f>
-        <v>1.7156852664584478E-3</v>
+        <v>1.7282237066391717E-3</v>
       </c>
       <c r="AI8" s="4">
         <f>AI$5*Calculations!$B$27</f>
-        <v>1.7379891749224076E-3</v>
+        <v>1.7666289158354185E-3</v>
       </c>
     </row>
   </sheetData>
@@ -15834,8 +15834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:AM13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16521,106 +16521,106 @@
         <v>6.1095975697120306E-4</v>
       </c>
       <c r="F12" s="42">
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="G12" s="4">
-        <v>6.2694796285138238E-4</v>
+        <v>6.072320057266767E-4</v>
       </c>
       <c r="H12" s="4">
-        <v>6.3509828636845028E-4</v>
+        <v>6.1181381950663899E-4</v>
       </c>
       <c r="I12" s="4">
-        <v>6.4335456409124003E-4</v>
+        <v>6.2383232505965926E-4</v>
       </c>
       <c r="J12" s="4">
-        <v>6.517181734244261E-4</v>
+        <v>6.3603424104160589E-4</v>
       </c>
       <c r="K12" s="4">
-        <v>6.6019050967894353E-4</v>
+        <v>6.4894526301838707E-4</v>
       </c>
       <c r="L12" s="4">
-        <v>6.6877298630476972E-4</v>
+        <v>6.6244996523030493E-4</v>
       </c>
       <c r="M12" s="4">
-        <v>6.7746703512673167E-4</v>
+        <v>6.7656034063432705E-4</v>
       </c>
       <c r="N12" s="4">
-        <v>6.8627410658337912E-4</v>
+        <v>6.9128948265566868E-4</v>
       </c>
       <c r="O12" s="4">
-        <v>6.9519566996896303E-4</v>
+        <v>7.0665156633416737E-4</v>
       </c>
       <c r="P12" s="4">
-        <v>7.0423321367855951E-4</v>
+        <v>7.2266183528083645E-4</v>
       </c>
       <c r="Q12" s="4">
-        <v>7.1338824545638072E-4</v>
+        <v>7.3933659385631736E-4</v>
       </c>
       <c r="R12" s="4">
-        <v>7.2266229264731361E-4</v>
+        <v>7.5669320407387175E-4</v>
       </c>
       <c r="S12" s="4">
-        <v>7.3205690245172861E-4</v>
+        <v>7.7475008680641833E-4</v>
       </c>
       <c r="T12" s="4">
-        <v>7.4157364218360104E-4</v>
+        <v>7.9863335786483529E-4</v>
       </c>
       <c r="U12" s="4">
-        <v>7.5121409953198773E-4</v>
+        <v>8.237234232157186E-4</v>
       </c>
       <c r="V12" s="4">
-        <v>7.6097988282590348E-4</v>
+        <v>8.5007053965037362E-4</v>
       </c>
       <c r="W12" s="4">
-        <v>7.7087262130264012E-4</v>
+        <v>8.7772798200527345E-4</v>
       </c>
       <c r="X12" s="4">
-        <v>7.8089396537957441E-4</v>
+        <v>9.0675215827171586E-4</v>
       </c>
       <c r="Y12" s="4">
-        <v>7.9104558692950878E-4</v>
+        <v>9.3720273489263269E-4</v>
       </c>
       <c r="Z12" s="4">
-        <v>8.0132917955959228E-4</v>
+        <v>9.6914277233677872E-4</v>
       </c>
       <c r="AA12" s="4">
-        <v>8.1174645889386693E-4</v>
+        <v>1.0026388711041254E-3</v>
       </c>
       <c r="AB12" s="4">
-        <v>8.2229916285948715E-4</v>
+        <v>1.0377613283751872E-3</v>
       </c>
       <c r="AC12" s="4">
-        <v>8.3298905197666041E-4</v>
+        <v>1.074584305572199E-3</v>
       </c>
       <c r="AD12" s="4">
-        <v>8.4381790965235687E-4</v>
+        <v>1.1137282028841316E-3</v>
       </c>
       <c r="AE12" s="4">
-        <v>8.5478754247783747E-4</v>
+        <v>1.1547726751853448E-3</v>
       </c>
       <c r="AF12" s="4">
-        <v>8.6589978053004928E-4</v>
+        <v>1.197807450156568E-3</v>
       </c>
       <c r="AG12" s="4">
-        <v>8.7715647767693981E-4</v>
+        <v>1.2429270853403414E-3</v>
       </c>
       <c r="AH12" s="4">
-        <v>8.8855951188673995E-4</v>
+        <v>1.2902312080237291E-3</v>
       </c>
       <c r="AI12" s="4">
-        <v>9.0011078554126753E-4</v>
+        <v>1.3398247693971758E-3</v>
       </c>
       <c r="AJ12" s="4">
-        <v>9.1181222575330387E-4</v>
+        <v>1.3918183136469805E-3</v>
       </c>
       <c r="AK12" s="4">
-        <v>9.2366578468809678E-4</v>
+        <v>1.4463282626894839E-3</v>
       </c>
       <c r="AL12" s="4">
-        <v>9.356734398890419E-4</v>
+        <v>1.5034772173068065E-3</v>
       </c>
       <c r="AM12" s="4">
-        <v>9.4783719460759933E-4</v>
+        <v>1.5633942754972108E-3</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -18860,235 +18860,235 @@
       <c r="N6" s="10"/>
       <c r="O6" s="14">
         <f t="shared" si="27"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="P6" s="14">
         <f t="shared" si="28"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="Q6" s="14">
         <f t="shared" si="29"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="R6" s="14">
         <f t="shared" si="30"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" si="31"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="T6" s="14">
         <f t="shared" si="32"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" si="33"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="V6" s="14">
         <f t="shared" si="34"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="W6" s="14">
         <f t="shared" si="35"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="X6" s="14">
         <f t="shared" si="36"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="Y6" s="14">
         <f t="shared" si="37"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="Z6" s="14">
         <f t="shared" si="38"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AA6" s="14">
         <f t="shared" si="39"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AB6" s="14">
         <f t="shared" si="40"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AC6" s="14">
         <f t="shared" si="41"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AD6" s="14">
         <f t="shared" si="42"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AE6" s="14">
         <f t="shared" si="43"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AF6" s="14">
         <f t="shared" si="44"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AG6" s="14">
         <f t="shared" si="45"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AH6" s="14">
         <f t="shared" si="46"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AI6" s="14">
         <f t="shared" si="47"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AJ6" s="14">
         <f t="shared" si="48"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AK6" s="14">
         <f t="shared" si="49"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AL6" s="14">
         <f t="shared" si="50"/>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AM6" s="40">
         <f>BNVFE!F12</f>
-        <v>6.1890223381182868E-4</v>
+        <v>6.0313010134796052E-4</v>
       </c>
       <c r="AN6" s="13">
         <f>BNVFE!G12</f>
-        <v>6.2694796285138238E-4</v>
+        <v>6.072320057266767E-4</v>
       </c>
       <c r="AO6" s="13">
         <f>BNVFE!H12</f>
-        <v>6.3509828636845028E-4</v>
+        <v>6.1181381950663899E-4</v>
       </c>
       <c r="AP6" s="13">
         <f>BNVFE!I12</f>
-        <v>6.4335456409124003E-4</v>
+        <v>6.2383232505965926E-4</v>
       </c>
       <c r="AQ6" s="13">
         <f>BNVFE!J12</f>
-        <v>6.517181734244261E-4</v>
+        <v>6.3603424104160589E-4</v>
       </c>
       <c r="AR6" s="13">
         <f>BNVFE!K12</f>
-        <v>6.6019050967894353E-4</v>
+        <v>6.4894526301838707E-4</v>
       </c>
       <c r="AS6" s="13">
         <f>BNVFE!L12</f>
-        <v>6.6877298630476972E-4</v>
+        <v>6.6244996523030493E-4</v>
       </c>
       <c r="AT6" s="13">
         <f>BNVFE!M12</f>
-        <v>6.7746703512673167E-4</v>
+        <v>6.7656034063432705E-4</v>
       </c>
       <c r="AU6" s="13">
         <f>BNVFE!N12</f>
-        <v>6.8627410658337912E-4</v>
+        <v>6.9128948265566868E-4</v>
       </c>
       <c r="AV6" s="13">
         <f>BNVFE!O12</f>
-        <v>6.9519566996896303E-4</v>
+        <v>7.0665156633416737E-4</v>
       </c>
       <c r="AW6" s="13">
         <f>BNVFE!P12</f>
-        <v>7.0423321367855951E-4</v>
+        <v>7.2266183528083645E-4</v>
       </c>
       <c r="AX6" s="13">
         <f>BNVFE!Q12</f>
-        <v>7.1338824545638072E-4</v>
+        <v>7.3933659385631736E-4</v>
       </c>
       <c r="AY6" s="13">
         <f>BNVFE!R12</f>
-        <v>7.2266229264731361E-4</v>
+        <v>7.5669320407387175E-4</v>
       </c>
       <c r="AZ6" s="13">
         <f>BNVFE!S12</f>
-        <v>7.3205690245172861E-4</v>
+        <v>7.7475008680641833E-4</v>
       </c>
       <c r="BA6" s="13">
         <f>BNVFE!T12</f>
-        <v>7.4157364218360104E-4</v>
+        <v>7.9863335786483529E-4</v>
       </c>
       <c r="BB6" s="13">
         <f>BNVFE!U12</f>
-        <v>7.5121409953198773E-4</v>
+        <v>8.237234232157186E-4</v>
       </c>
       <c r="BC6" s="13">
         <f>BNVFE!V12</f>
-        <v>7.6097988282590348E-4</v>
+        <v>8.5007053965037362E-4</v>
       </c>
       <c r="BD6" s="13">
         <f>BNVFE!W12</f>
-        <v>7.7087262130264012E-4</v>
+        <v>8.7772798200527345E-4</v>
       </c>
       <c r="BE6" s="13">
         <f>BNVFE!X12</f>
-        <v>7.8089396537957441E-4</v>
+        <v>9.0675215827171586E-4</v>
       </c>
       <c r="BF6" s="13">
         <f>BNVFE!Y12</f>
-        <v>7.9104558692950878E-4</v>
+        <v>9.3720273489263269E-4</v>
       </c>
       <c r="BG6" s="13">
         <f>BNVFE!Z12</f>
-        <v>8.0132917955959228E-4</v>
+        <v>9.6914277233677872E-4</v>
       </c>
       <c r="BH6" s="13">
         <f>BNVFE!AA12</f>
-        <v>8.1174645889386693E-4</v>
+        <v>1.0026388711041254E-3</v>
       </c>
       <c r="BI6" s="13">
         <f>BNVFE!AB12</f>
-        <v>8.2229916285948715E-4</v>
+        <v>1.0377613283751872E-3</v>
       </c>
       <c r="BJ6" s="13">
         <f>BNVFE!AC12</f>
-        <v>8.3298905197666041E-4</v>
+        <v>1.074584305572199E-3</v>
       </c>
       <c r="BK6" s="13">
         <f>BNVFE!AD12</f>
-        <v>8.4381790965235687E-4</v>
+        <v>1.1137282028841316E-3</v>
       </c>
       <c r="BL6" s="13">
         <f>BNVFE!AE12</f>
-        <v>8.5478754247783747E-4</v>
+        <v>1.1547726751853448E-3</v>
       </c>
       <c r="BM6" s="13">
         <f>BNVFE!AF12</f>
-        <v>8.6589978053004928E-4</v>
+        <v>1.197807450156568E-3</v>
       </c>
       <c r="BN6" s="13">
         <f>BNVFE!AG12</f>
-        <v>8.7715647767693981E-4</v>
+        <v>1.2429270853403414E-3</v>
       </c>
       <c r="BO6" s="13">
         <f>BNVFE!AH12</f>
-        <v>8.8855951188673995E-4</v>
+        <v>1.2902312080237291E-3</v>
       </c>
       <c r="BP6" s="13">
         <f>BNVFE!AI12</f>
-        <v>9.0011078554126753E-4</v>
+        <v>1.3398247693971758E-3</v>
       </c>
       <c r="BQ6" s="13">
         <f>BNVFE!AJ12</f>
-        <v>9.1181222575330387E-4</v>
+        <v>1.3918183136469805E-3</v>
       </c>
       <c r="BR6" s="13">
         <f>BNVFE!AK12</f>
-        <v>9.2366578468809678E-4</v>
+        <v>1.4463282626894839E-3</v>
       </c>
       <c r="BS6" s="13">
         <f>BNVFE!AL12</f>
-        <v>9.356734398890419E-4</v>
+        <v>1.5034772173068065E-3</v>
       </c>
       <c r="BT6" s="13">
         <f>BNVFE!AM12</f>
-        <v>9.4783719460759933E-4</v>
+        <v>1.5633942754972108E-3</v>
       </c>
     </row>
     <row r="7" spans="1:72" ht="15.75" customHeight="1">
